--- a/dataconfig/case.xlsx
+++ b/dataconfig/case.xlsx
@@ -3873,71 +3873,99 @@
   "countryEn": "China",
   "data": [
     {
-      "air": 105,
-      "air_level": "轻度",
-      "air_tips": "儿童、老年人及心脏病、呼吸系统疾病患者应尽量减少体力消耗大的户外活动。",
+      "air": 23,
+      "air_level": "优",
+      "air_tips": "空气很好，可以外出活动，呼吸新鲜空气，拥抱大自然！",
       "alarm": {
         "alarm_content": "",
         "alarm_level": "",
         "alarm_type": ""
       },
-      "date": "2021-01-05",
-      "day": "5日（今天）",
+      "date": "2021-01-07",
+      "day": "7日（今天）",
       "hours": [
         {
-          "day": "05日20时",
-          "tem": "11℃",
-          "wea": "晴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "05日23时",
-          "tem": "12℃",
+          "day": "07日08时",
+          "tem": "5℃",
           "wea": "阴",
           "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "06日02时",
-          "tem": "11℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "06日05时",
-          "tem": "10℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
+          "win_speed": "4-5级"
+        },
+        {
+          "day": "07日11时",
+          "tem": "5℃",
+          "wea": "小雨",
+          "win": "北风",
+          "win_speed": "4-5级"
+        },
+        {
+          "day": "07日14时",
+          "tem": "6℃",
+          "wea": "小雨",
+          "win": "北风",
+          "win_speed": "4-5级"
+        },
+        {
+          "day": "07日17时",
+          "tem": "6℃",
+          "wea": "小雨",
+          "win": "北风",
+          "win_speed": "4-5级"
+        },
+        {
+          "day": "07日20时",
+          "tem": "6℃",
+          "wea": "小雨",
+          "win": "北风",
+          "win_speed": "4-5级"
+        },
+        {
+          "day": "07日23时",
+          "tem": "5℃",
+          "wea": "小雨",
+          "win": "北风",
+          "win_speed": "4-5级"
+        },
+        {
+          "day": "08日02时",
+          "tem": "4℃",
+          "wea": "小雨",
+          "win": "北风",
+          "win_speed": "4-5级"
+        },
+        {
+          "day": "08日05时",
+          "tem": "2℃",
+          "wea": "小雨",
+          "win": "北风",
+          "win_speed": "4-5级"
         }
       ],
-      "humidity": 50,
+      "humidity": 63,
       "index": [
         {
-          "desc": "温度未达到风寒所需的低温，稍作防寒准备即可。",
-          "level": "无",
+          "desc": "风力较大，感觉有点冷，室外活动要穿厚实一点，年老体弱者要适当注意保暖。",
+          "level": "冷",
           "title": "中暑指数"
         },
         {
-          "desc": "春天不减肥，夏天徒伤悲。天气较舒适，快去运动吧。",
+          "desc": "风雨交加特别冷，适当偷懒低强度运动吧。",
           "level": "",
           "title": "运动指数"
         },
         {
-          "desc": "天气条件好，血糖不易波动，可适时进行户外锻炼。",
-          "level": "不易波动",
+          "desc": "风雨相伴，注意监测血糖变化。",
+          "level": "较易波动",
           "title": "健臻·血糖指数"
         },
         {
-          "desc": "建议着厚外套加毛衣等服装。",
-          "level": "较冷",
+          "desc": "建议着棉衣加羊毛衫等冬季服装。",
+          "level": "冷",
           "title": "穿衣指数"
         },
         {
-          "desc": "无雨且风力较小，易保持清洁度。",
-          "level": "较适宜",
+          "desc": "有雨，雨水和泥水会弄脏爱车。",
+          "level": "不宜",
           "title": "洗车指数"
         },
         {
@@ -3946,219 +3974,10 @@
           "title": "紫外线指数"
         }
       ],
-      "tem": "11℃",
-      "tem1": "15℃",
-      "tem2": "9℃",
-      "wea": "阴",
-      "wea_img": "yin",
-      "week": "星期二",
-      "win": [
-        "北风"
-      ],
-      "win_speed": "&lt;3级"
-    },
-    {
-      "date": "2021-01-06",
-      "day": "6日（明天）",
-      "hours": [
-        {
-          "day": "06日08时",
-          "tem": "9℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "06日11时",
-          "tem": "12℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "06日14时",
-          "tem": "14℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "06日17时",
-          "tem": "14℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "06日20时",
-          "tem": "11℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "06日23时",
-          "tem": "9℃",
-          "wea": "小雨",
-          "win": "北风",
-          "win_speed": "3-4级"
-        },
-        {
-          "day": "07日02时",
-          "tem": "7℃",
-          "wea": "小雨",
-          "win": "北风",
-          "win_speed": "3-4级"
-        },
-        {
-          "day": "07日05时",
-          "tem": "5℃",
-          "wea": "小雨",
-          "win": "北风",
-          "win_speed": "4-5级"
-        }
-      ],
-      "index": [
-        {
-          "desc": "温度未达到风寒所需的低温，稍作防寒准备即可。",
-          "level": "无",
-          "title": "中暑指数"
-        },
-        {
-          "desc": "春天不减肥，夏天徒伤悲。天气较舒适，快去运动吧。",
-          "level": "",
-          "title": "运动指数"
-        },
-        {
-          "desc": "天气条件不易引起血糖波动。",
-          "level": "不易波动",
-          "title": "健臻·血糖指数"
-        },
-        {
-          "desc": "建议着厚外套加毛衣等服装。",
-          "level": "较冷",
-          "title": "穿衣指数"
-        },
-        {
-          "desc": "有雨，雨水和泥水会弄脏爱车。",
-          "level": "不宜",
-          "title": "洗车指数"
-        },
-        {
-          "desc": "辐射弱，涂擦SPF8-12防晒护肤品。",
-          "level": "最弱",
-          "title": "紫外线指数"
-        }
-      ],
-      "tem": "9℃",
-      "tem1": "15℃",
-      "tem2": "5℃",
-      "wea": "阴转小雨",
-      "wea_img": "yu",
-      "week": "星期三",
-      "win": [
-        "北风",
-        "北风"
-      ],
-      "win_speed": "&lt;3级转4-5级"
-    },
-    {
-      "date": "2021-01-07",
-      "day": "7日（后天）",
-      "hours": [
-        {
-          "day": "07日08时",
-          "tem": "5℃",
-          "wea": "小雨",
-          "win": "北风",
-          "win_speed": "4-5级"
-        },
-        {
-          "day": "07日11时",
-          "tem": "9℃",
-          "wea": "小雨",
-          "win": "北风",
-          "win_speed": "4-5级"
-        },
-        {
-          "day": "07日14时",
-          "tem": "10℃",
-          "wea": "小雨",
-          "win": "北风",
-          "win_speed": "4-5级"
-        },
-        {
-          "day": "07日17时",
-          "tem": "7℃",
-          "wea": "小雨",
-          "win": "北风",
-          "win_speed": "4-5级"
-        },
-        {
-          "day": "07日20时",
-          "tem": "5℃",
-          "wea": "小雨",
-          "win": "北风",
-          "win_speed": "4-5级"
-        },
-        {
-          "day": "07日23时",
-          "tem": "5℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "4-5级"
-        },
-        {
-          "day": "08日02时",
-          "tem": "4℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "4-5级"
-        },
-        {
-          "day": "08日05时",
-          "tem": "3℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "4-5级"
-        }
-      ],
-      "index": [
-        {
-          "desc": "风力较大，感觉有点凉，室外活动注意适当增减衣物。",
-          "level": "凉",
-          "title": "中暑指数"
-        },
-        {
-          "desc": "风雨相伴，坚持室内运动吧。",
-          "level": "",
-          "title": "运动指数"
-        },
-        {
-          "desc": "气温多变，血糖易波动，注意监测血糖变化。",
-          "level": "易波动",
-          "title": "健臻·血糖指数"
-        },
-        {
-          "desc": "建议着棉衣加羊毛衫等冬季服装。",
-          "level": "冷",
-          "title": "穿衣指数"
-        },
-        {
-          "desc": "有雨，雨水和泥水会弄脏爱车。",
-          "level": "不宜",
-          "title": "洗车指数"
-        },
-        {
-          "desc": "辐射弱，涂擦SPF8-12防晒护肤品。",
-          "level": "最弱",
-          "title": "紫外线指数"
-        }
-      ],
-      "tem": "5℃",
-      "tem1": "10℃",
-      "tem2": "3℃",
-      "wea": "小雨转阴",
+      "tem": "6℃",
+      "tem1": "7℃",
+      "tem2": "2℃",
+      "wea": "小雨",
       "wea_img": "yu",
       "week": "星期四",
       "win": [
@@ -4169,32 +3988,32 @@
     },
     {
       "date": "2021-01-08",
-      "day": "8日（周五）",
+      "day": "8日（明天）",
       "hours": [
         {
           "day": "08日08时",
-          "tem": "3℃",
+          "tem": "2℃",
+          "wea": "小雨",
+          "win": "北风",
+          "win_speed": "4-5级"
+        },
+        {
+          "day": "08日11时",
+          "tem": "2℃",
           "wea": "阴",
           "win": "北风",
           "win_speed": "4-5级"
         },
         {
-          "day": "08日11时",
+          "day": "08日14时",
+          "tem": "5℃",
+          "wea": "阴",
+          "win": "北风",
+          "win_speed": "4-5级"
+        },
+        {
+          "day": "08日17时",
           "tem": "6℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "4-5级"
-        },
-        {
-          "day": "08日14时",
-          "tem": "8℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "4-5级"
-        },
-        {
-          "day": "08日17时",
-          "tem": "8℃",
           "wea": "阴",
           "win": "北风",
           "win_speed": "4-5级"
@@ -4204,12 +4023,26 @@
           "tem": "6℃",
           "wea": "阴",
           "win": "北风",
-          "win_speed": "4-5级"
+          "win_speed": "3-4级"
+        },
+        {
+          "day": "08日23时",
+          "tem": "8℃",
+          "wea": "阴",
+          "win": "北风",
+          "win_speed": "&lt;3级"
         },
         {
           "day": "09日02时",
-          "tem": "8℃",
-          "wea": "多云",
+          "tem": "7℃",
+          "wea": "阴",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "09日05时",
+          "tem": "6℃",
+          "wea": "阴",
           "win": "北风",
           "win_speed": "&lt;3级"
         }
@@ -4226,8 +4059,8 @@
           "title": "运动指数"
         },
         {
-          "desc": "天气条件不易引起血糖波动。",
-          "level": "不易波动",
+          "desc": "风力较大，血糖较易波动，注意监测。",
+          "level": "较易波动",
           "title": "健臻·血糖指数"
         },
         {
@@ -4246,11 +4079,11 @@
           "title": "紫外线指数"
         }
       ],
-      "tem": "3℃",
+      "tem": "2℃",
       "tem1": "9℃",
-      "tem2": "3℃",
-      "wea": "阴转多云",
-      "wea_img": "yun",
+      "tem2": "2℃",
+      "wea": "阴",
+      "wea_img": "yin",
       "week": "星期五",
       "win": [
         "北风",
@@ -4260,33 +4093,61 @@
     },
     {
       "date": "2021-01-09",
-      "day": "9日（周六）",
+      "day": "9日（后天）",
       "hours": [
         {
           "day": "09日08时",
+          "tem": "4℃",
+          "wea": "阴",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "09日11时",
+          "tem": "4℃",
+          "wea": "阴",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "09日14时",
+          "tem": "6℃",
+          "wea": "阴",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "09日17时",
           "tem": "5℃",
-          "wea": "多云",
+          "wea": "阴",
           "win": "北风",
           "win_speed": "&lt;3级"
         },
         {
-          "day": "09日14时",
-          "tem": "10℃",
-          "wea": "多云",
+          "day": "09日20时",
+          "tem": "9℃",
+          "wea": "阴",
           "win": "北风",
           "win_speed": "&lt;3级"
         },
         {
-          "day": "09日20时",
-          "tem": "8℃",
-          "wea": "多云",
+          "day": "09日23时",
+          "tem": "9℃",
+          "wea": "阴",
           "win": "北风",
           "win_speed": "&lt;3级"
         },
         {
           "day": "10日02时",
-          "tem": "7℃",
-          "wea": "中雨",
+          "tem": "5℃",
+          "wea": "阴",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "10日05时",
+          "tem": "3℃",
+          "wea": "阴",
           "win": "北风",
           "win_speed": "&lt;3级"
         }
@@ -4303,8 +4164,8 @@
           "title": "运动指数"
         },
         {
-          "desc": "天气条件好，血糖不易波动，可适时进行户外锻炼。",
-          "level": "不易波动",
+          "desc": "血糖较易波动，注意监测。",
+          "level": "较易波动",
           "title": "健臻·血糖指数"
         },
         {
@@ -4313,21 +4174,21 @@
           "title": "穿衣指数"
         },
         {
-          "desc": "有雨，雨水和泥水会弄脏爱车。",
-          "level": "不宜",
+          "desc": "无雨且风力较小，易保持清洁度。",
+          "level": "较适宜",
           "title": "洗车指数"
         },
         {
-          "desc": "涂擦SPF大于15、PA+防晒护肤品。",
-          "level": "中等",
+          "desc": "辐射弱，涂擦SPF8-12防晒护肤品。",
+          "level": "最弱",
           "title": "紫外线指数"
         }
       ],
-      "tem": "5℃",
-      "tem1": "12℃",
-      "tem2": "5℃",
-      "wea": "多云转小雨",
-      "wea_img": "yun",
+      "tem": "4℃",
+      "tem1": "10℃",
+      "tem2": "3℃",
+      "wea": "阴",
+      "wea_img": "yin",
       "week": "星期六",
       "win": [
         "北风",
@@ -4341,29 +4202,29 @@
       "hours": [
         {
           "day": "10日08时",
-          "tem": "6℃",
+          "tem": "3℃",
+          "wea": "阴",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "10日14时",
+          "tem": "11℃",
           "wea": "中雨",
           "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "10日14时",
+          "win_speed": "3-4级"
+        },
+        {
+          "day": "10日20时",
           "tem": "10℃",
+          "wea": "中雨",
+          "win": "北风",
+          "win_speed": "3-4级"
+        },
+        {
+          "day": "11日02时",
+          "tem": "8℃",
           "wea": "阴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "10日20时",
-          "tem": "9℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "11日02时",
-          "tem": "7℃",
-          "wea": "多云",
           "win": "北风",
           "win_speed": "3-4级"
         }
@@ -4375,12 +4236,12 @@
           "title": "中暑指数"
         },
         {
-          "desc": "春天不减肥，夏天徒伤悲。天气较舒适，快去运动吧。",
+          "desc": "风雨相伴，坚持室内运动吧。",
           "level": "",
           "title": "运动指数"
         },
         {
-          "desc": "天气条件好，血糖不易波动，可适时进行户外锻炼。",
+          "desc": "天气条件不易引起血糖波动。",
           "level": "不易波动",
           "title": "健臻·血糖指数"
         },
@@ -4390,8 +4251,8 @@
           "title": "穿衣指数"
         },
         {
-          "desc": "风力较大，洗车后会蒙上灰尘。",
-          "level": "较不宜",
+          "desc": "有雨，雨水和泥水会弄脏爱车。",
+          "level": "不宜",
           "title": "洗车指数"
         },
         {
@@ -4400,17 +4261,17 @@
           "title": "紫外线指数"
         }
       ],
-      "tem": "6℃",
-      "tem1": "11℃",
-      "tem2": "6℃",
-      "wea": "阴转多云",
-      "wea_img": "yun",
+      "tem": "3℃",
+      "tem1": "12℃",
+      "tem2": "5℃",
+      "wea": "小雨转阴",
+      "wea_img": "yu",
       "week": "星期日",
       "win": [
         "北风",
         "北风"
       ],
-      "win_speed": "&lt;3级转3-4级"
+      "win_speed": "3-4级"
     },
     {
       "date": "2021-01-11",
@@ -4418,28 +4279,28 @@
       "hours": [
         {
           "day": "11日08时",
-          "tem": "7℃",
+          "tem": "5℃",
+          "wea": "阴",
+          "win": "北风",
+          "win_speed": "3-4级"
+        },
+        {
+          "day": "11日14时",
+          "tem": "13℃",
           "wea": "多云",
           "win": "北风",
           "win_speed": "3-4级"
         },
         {
-          "day": "11日14时",
-          "tem": "14℃",
+          "day": "11日20时",
+          "tem": "10℃",
           "wea": "多云",
           "win": "北风",
-          "win_speed": "3-4级"
-        },
-        {
-          "day": "11日20时",
-          "tem": "11℃",
-          "wea": "多云",
-          "win": "北风",
           "win_speed": "&lt;3级"
         },
         {
           "day": "12日02时",
-          "tem": "4℃",
+          "tem": "5℃",
           "wea": "多云",
           "win": "北风",
           "win_speed": "&lt;3级"
@@ -4447,8 +4308,8 @@
       ],
       "index": [
         {
-          "desc": "温度未达到风寒所需的低温，稍作防寒准备即可。",
-          "level": "无",
+          "desc": "感觉有点凉，室外活动注意适当增减衣物。",
+          "level": "凉",
           "title": "中暑指数"
         },
         {
@@ -4457,8 +4318,8 @@
           "title": "运动指数"
         },
         {
-          "desc": "气温多变，血糖易波动，请注意监测。",
-          "level": "易波动",
+          "desc": "天气条件好，血糖不易波动，可适时进行户外锻炼。",
+          "level": "不易波动",
           "title": "健臻·血糖指数"
         },
         {
@@ -4467,7 +4328,7 @@
           "title": "穿衣指数"
         },
         {
-          "desc": "风力较大，洗车后会蒙上灰尘。",
+          "desc": "路面有积水，车子易被溅上泥水。",
           "level": "较不宜",
           "title": "洗车指数"
         },
@@ -4477,9 +4338,9 @@
           "title": "紫外线指数"
         }
       ],
-      "tem": "7℃",
-      "tem1": "15℃",
-      "tem2": "4℃",
+      "tem": "5℃",
+      "tem1": "14℃",
+      "tem2": "3℃",
       "wea": "多云",
       "wea_img": "yun",
       "week": "星期一",
@@ -4488,9 +4349,163 @@
         "北风"
       ],
       "win_speed": "3-4级转&lt;3级"
+    },
+    {
+      "date": "2021-01-12",
+      "day": "12日（周二）",
+      "hours": [
+        {
+          "day": "12日08时",
+          "tem": "4℃",
+          "wea": "多云",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "12日14时",
+          "tem": "10℃",
+          "wea": "晴",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "12日20时",
+          "tem": "9℃",
+          "wea": "多云",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "13日02时",
+          "tem": "4℃",
+          "wea": "多云",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        }
+      ],
+      "index": [
+        {
+          "desc": "温度未达到风寒所需的低温，稍作防寒准备即可。",
+          "level": "无",
+          "title": "中暑指数"
+        },
+        {
+          "desc": "春天不减肥，夏天徒伤悲。天气较舒适，快去运动吧。",
+          "level": "",
+          "title": "运动指数"
+        },
+        {
+          "desc": "天气条件好，血糖不易波动，可适时进行户外锻炼。",
+          "level": "不易波动",
+          "title": "健臻·血糖指数"
+        },
+        {
+          "desc": "建议着厚外套加毛衣等服装。",
+          "level": "较冷",
+          "title": "穿衣指数"
+        },
+        {
+          "desc": "天气较好，适合擦洗汽车。",
+          "level": "适宜",
+          "title": "洗车指数"
+        },
+        {
+          "desc": "涂擦SPF大于15、PA+防晒护肤品。",
+          "level": "中等",
+          "title": "紫外线指数"
+        }
+      ],
+      "tem": "4℃",
+      "tem1": "15℃",
+      "tem2": "3℃",
+      "wea": "多云",
+      "wea_img": "yun",
+      "week": "星期二",
+      "win": [
+        "北风",
+        "北风"
+      ],
+      "win_speed": "&lt;3级"
+    },
+    {
+      "date": "2021-01-13",
+      "day": "13日（周三）",
+      "hours": [
+        {
+          "day": "13日08时",
+          "tem": "4℃",
+          "wea": "晴",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "13日14时",
+          "tem": "9℃",
+          "wea": "多云",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "13日20时",
+          "tem": "8℃",
+          "wea": "多云",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "14日02时",
+          "tem": "5℃",
+          "wea": "多云",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        }
+      ],
+      "index": [
+        {
+          "desc": "感觉有点凉，室外活动注意适当增减衣物。",
+          "level": "凉",
+          "title": "中暑指数"
+        },
+        {
+          "desc": "春天不减肥，夏天徒伤悲。天气较舒适，快去运动吧。",
+          "level": "",
+          "title": "运动指数"
+        },
+        {
+          "desc": "天气条件好，血糖不易波动，可适时进行户外锻炼。",
+          "level": "不易波动",
+          "title": "健臻·血糖指数"
+        },
+        {
+          "desc": "建议着厚外套加毛衣等服装。",
+          "level": "较冷",
+          "title": "穿衣指数"
+        },
+        {
+          "desc": "天气较好，适合擦洗汽车。",
+          "level": "适宜",
+          "title": "洗车指数"
+        },
+        {
+          "desc": "涂擦SPF大于15、PA+防晒护肤品。",
+          "level": "中等",
+          "title": "紫外线指数"
+        }
+      ],
+      "tem": "4℃",
+      "tem1": "12℃",
+      "tem2": "4℃",
+      "wea": "多云",
+      "wea_img": "yun",
+      "week": "星期三",
+      "win": [
+        "北风",
+        "北风"
+      ],
+      "win_speed": "&lt;3级"
     }
   ],
-  "update_time": "2021-01-05 21:29:57"
+  "update_time": "2021-01-07 15:57:17"
 }</t>
         </is>
       </c>

--- a/dataconfig/case.xlsx
+++ b/dataconfig/case.xlsx
@@ -1,475 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work_python\api_autotest\dataconfig\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="90" windowWidth="16335" windowHeight="10830" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="16335" windowHeight="10830"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1" calcOnSave="0"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <color rgb="FF000000"/>
-      <sz val="9"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-</styleSheet>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O204"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
-  <cols>
-    <col width="14.7109375" customWidth="1" style="4" min="6" max="6"/>
-    <col width="14.140625" customWidth="1" style="4" min="8" max="8"/>
-    <col width="11.85546875" customWidth="1" style="4" min="9" max="9"/>
-    <col width="12.5703125" customWidth="1" style="4" min="11" max="11"/>
-    <col width="12.85546875" customWidth="1" style="4" min="12" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="21" customHeight="1" s="4">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>模块</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>是否运行</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>请求类型</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>是否携带header</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>依赖case</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>依赖的返回字段</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>数据依赖字段</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>请求数据</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>预期返回结果</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>实际返回结果</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>测试结果</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="n"/>
-      <c r="O1" s="1" t="n"/>
-    </row>
-    <row r="2" ht="42.75" customHeight="1" s="4">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>case1</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>车站查询接口</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>https://api.binstd.com/train/station2s</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>{"appkey": "935a981af6aec3b9", "start": "武汉", "end": "杭州", "ishigh": "0"}</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>{
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>是否运行</t>
+  </si>
+  <si>
+    <t>请求类型</t>
+  </si>
+  <si>
+    <t>是否携带header</t>
+  </si>
+  <si>
+    <t>依赖case</t>
+  </si>
+  <si>
+    <t>依赖的返回字段</t>
+  </si>
+  <si>
+    <t>数据依赖字段</t>
+  </si>
+  <si>
+    <t>请求数据</t>
+  </si>
+  <si>
+    <t>预期返回结果</t>
+  </si>
+  <si>
+    <t>实际返回结果</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>case1</t>
+  </si>
+  <si>
+    <t>车站查询接口</t>
+  </si>
+  <si>
+    <t>https://api.binstd.com/train/station2s</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>{"appkey": "935a981af6aec3b9", "start": "武汉", "end": "杭州", "ishigh": "0"}</t>
+  </si>
+  <si>
+    <t>{
   "msg": "ok",
   "result": {
     "date": "2021-01-05",
@@ -672,55 +281,27 @@
   },
   "status": 0
 }</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="n"/>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Skip</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="n"/>
-      <c r="O2" s="3" t="n"/>
-    </row>
-    <row r="3" ht="58.5" customHeight="1" s="4">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>case2</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>车次查询接口</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>https://api.binstd.com/train/ticket</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>{"appkey": "935a981af6aec3b9", "start": "武汉", "end": "杭州", "date": "2021-02-15"}</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>{
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>case2</t>
+  </si>
+  <si>
+    <t>车次查询接口</t>
+  </si>
+  <si>
+    <t>https://api.binstd.com/train/ticket</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>{"appkey": "935a981af6aec3b9", "start": "武汉", "end": "杭州", "date": "2021-02-15"}</t>
+  </si>
+  <si>
+    <t>{
   "msg": "ok",
   "result": {
     "date": "2021-02-15",
@@ -1928,11 +1509,9 @@
   },
   "status": 0
 }</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>{
+  </si>
+  <si>
+    <t>{
   "msg": "ok",
   "result": {
     "date": "2021-02-15",
@@ -3083,54 +2662,24 @@
   },
   "status": 0
 }</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="3" t="n"/>
-    </row>
-    <row r="4" ht="63" customHeight="1" s="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>case3</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>手机归属地查询接口</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>http://apis.juhe.cn/mobile/get</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>{"phone": "18207729493", "key": "df58e8b03b05f237c38a9e0bdb2bc4bb", "dtype": "json"}</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>{
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>case3</t>
+  </si>
+  <si>
+    <t>手机归属地查询接口</t>
+  </si>
+  <si>
+    <t>http://apis.juhe.cn/mobile/get</t>
+  </si>
+  <si>
+    <t>{"phone": "18207729493", "key": "df58e8b03b05f237c38a9e0bdb2bc4bb", "dtype": "json"}</t>
+  </si>
+  <si>
+    <t>{
   "error_code": 0,
   "reason": "Return Successd!",
   "result": {
@@ -3143,83 +2692,30 @@
   },
   "resultcode": "200"
 }</t>
-        </is>
-      </c>
-      <c r="L4" s="3" t="inlineStr">
-        <is>
-          <t>{
-  "error_code": 0,
-  "reason": "Return Successd!",
-  "result": {
-    "areacode": "0772",
-    "card": "",
-    "city": "柳州",
-    "company": "移动",
-    "province": "广西",
-    "zip": "545000"
-  },
-  "resultcode": "200"
-}</t>
-        </is>
-      </c>
-      <c r="M4" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="N4" s="3" t="n"/>
-      <c r="O4" s="3" t="n"/>
-    </row>
-    <row r="5" ht="66.75" customHeight="1" s="4">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>cases4</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>天气查询接口</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>https://www.tianqiapi.com/api</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>case3</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>$.result.city</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>{"version": "v1","city": "武汉", "appid": "22859479", "appsecret": "xHg4Chou"}</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>{
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>case4</t>
+  </si>
+  <si>
+    <t>天气查询接口</t>
+  </si>
+  <si>
+    <t>https://www.tianqiapi.com/api</t>
+  </si>
+  <si>
+    <t>$.result.city</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>{"version": "v1","city": "武汉", "appid": "22859479", "appsecret": "xHg4Chou"}</t>
+  </si>
+  <si>
+    <t>{
   "city": "柳州",
   "cityEn": "liuzhou",
   "cityid": "101300301",
@@ -3861,11 +3357,9 @@
   ],
   "update_time": "2021-01-05 16:10:35"
 }</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>{
+  </si>
+  <si>
+    <t>{
   "city": "柳州",
   "cityEn": "liuzhou",
   "cityid": "101300301",
@@ -3873,89 +3367,61 @@
   "countryEn": "China",
   "data": [
     {
-      "air": 23,
-      "air_level": "优",
-      "air_tips": "空气很好，可以外出活动，呼吸新鲜空气，拥抱大自然！",
+      "air": 57,
+      "air_level": "良",
+      "air_tips": "空气好，可以外出活动，除极少数对污染物特别敏感的人群以外，对公众没有危害！",
       "alarm": {
         "alarm_content": "",
         "alarm_level": "",
         "alarm_type": ""
       },
-      "date": "2021-01-07",
-      "day": "7日（今天）",
+      "date": "2021-01-10",
+      "day": "10日（今天）",
       "hours": [
         {
-          "day": "07日08时",
-          "tem": "5℃",
+          "day": "10日20时",
+          "tem": "7℃",
           "wea": "阴",
           "win": "北风",
-          "win_speed": "4-5级"
-        },
-        {
-          "day": "07日11时",
-          "tem": "5℃",
-          "wea": "小雨",
-          "win": "北风",
-          "win_speed": "4-5级"
-        },
-        {
-          "day": "07日14时",
-          "tem": "6℃",
-          "wea": "小雨",
-          "win": "北风",
-          "win_speed": "4-5级"
-        },
-        {
-          "day": "07日17时",
-          "tem": "6℃",
-          "wea": "小雨",
-          "win": "北风",
-          "win_speed": "4-5级"
-        },
-        {
-          "day": "07日20时",
-          "tem": "6℃",
-          "wea": "小雨",
-          "win": "北风",
-          "win_speed": "4-5级"
-        },
-        {
-          "day": "07日23时",
-          "tem": "5℃",
-          "wea": "小雨",
-          "win": "北风",
-          "win_speed": "4-5级"
-        },
-        {
-          "day": "08日02时",
-          "tem": "4℃",
-          "wea": "小雨",
-          "win": "北风",
-          "win_speed": "4-5级"
-        },
-        {
-          "day": "08日05时",
-          "tem": "2℃",
-          "wea": "小雨",
-          "win": "北风",
-          "win_speed": "4-5级"
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "10日23时",
+          "tem": "7℃",
+          "wea": "阴",
+          "win": "北风",
+          "win_speed": "3-4级"
+        },
+        {
+          "day": "11日02时",
+          "tem": "7℃",
+          "wea": "阴",
+          "win": "北风",
+          "win_speed": "3-4级"
+        },
+        {
+          "day": "11日05时",
+          "tem": "7℃",
+          "wea": "阴",
+          "win": "北风",
+          "win_speed": "3-4级"
         }
       ],
-      "humidity": 63,
+      "humidity": 35,
       "index": [
         {
-          "desc": "风力较大，感觉有点冷，室外活动要穿厚实一点，年老体弱者要适当注意保暖。",
+          "desc": "感觉有点冷，室外活动要穿厚实一点，年老体弱者要适当注意保暖。",
           "level": "冷",
           "title": "中暑指数"
         },
         {
-          "desc": "风雨交加特别冷，适当偷懒低强度运动吧。",
+          "desc": "春天不减肥，夏天徒伤悲。风虽有点大，室内可健身。",
           "level": "",
           "title": "运动指数"
         },
         {
-          "desc": "风雨相伴，注意监测血糖变化。",
-          "level": "较易波动",
+          "desc": "天气条件好，血糖不易波动，可适时进行户外锻炼。",
+          "level": "不易波动",
           "title": "健臻·血糖指数"
         },
         {
@@ -3964,8 +3430,8 @@
           "title": "穿衣指数"
         },
         {
-          "desc": "有雨，雨水和泥水会弄脏爱车。",
-          "level": "不宜",
+          "desc": "风力较大，洗车后会蒙上灰尘。",
+          "level": "较不宜",
           "title": "洗车指数"
         },
         {
@@ -3974,334 +3440,74 @@
           "title": "紫外线指数"
         }
       ],
-      "tem": "6℃",
-      "tem1": "7℃",
-      "tem2": "2℃",
-      "wea": "小雨",
-      "wea_img": "yu",
-      "week": "星期四",
-      "win": [
-        "北风",
-        "北风"
-      ],
-      "win_speed": "4-5级"
-    },
-    {
-      "date": "2021-01-08",
-      "day": "8日（明天）",
-      "hours": [
-        {
-          "day": "08日08时",
-          "tem": "2℃",
-          "wea": "小雨",
-          "win": "北风",
-          "win_speed": "4-5级"
-        },
-        {
-          "day": "08日11时",
-          "tem": "2℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "4-5级"
-        },
-        {
-          "day": "08日14时",
-          "tem": "5℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "4-5级"
-        },
-        {
-          "day": "08日17时",
-          "tem": "6℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "4-5级"
-        },
-        {
-          "day": "08日20时",
-          "tem": "6℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "3-4级"
-        },
-        {
-          "day": "08日23时",
-          "tem": "8℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "09日02时",
-          "tem": "7℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "09日05时",
-          "tem": "6℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        }
-      ],
-      "index": [
-        {
-          "desc": "风力较大，感觉有点冷，室外活动要穿厚实一点，年老体弱者要适当注意保暖。",
-          "level": "冷",
-          "title": "中暑指数"
-        },
-        {
-          "desc": "春天不减肥，夏天徒伤悲。风虽有点大，室内可健身。",
-          "level": "",
-          "title": "运动指数"
-        },
-        {
-          "desc": "风力较大，血糖较易波动，注意监测。",
-          "level": "较易波动",
-          "title": "健臻·血糖指数"
-        },
-        {
-          "desc": "建议着棉衣加羊毛衫等冬季服装。",
-          "level": "冷",
-          "title": "穿衣指数"
-        },
-        {
-          "desc": "路面有积水，车子易被溅上泥水。",
-          "level": "较不宜",
-          "title": "洗车指数"
-        },
-        {
-          "desc": "辐射弱，涂擦SPF8-12防晒护肤品。",
-          "level": "最弱",
-          "title": "紫外线指数"
-        }
-      ],
-      "tem": "2℃",
-      "tem1": "9℃",
-      "tem2": "2℃",
+      "tem": "7℃",
+      "tem1": "12℃",
+      "tem2": "6℃",
       "wea": "阴",
       "wea_img": "yin",
-      "week": "星期五",
-      "win": [
-        "北风",
-        "北风"
-      ],
-      "win_speed": "4-5级转&lt;3级"
-    },
-    {
-      "date": "2021-01-09",
-      "day": "9日（后天）",
-      "hours": [
-        {
-          "day": "09日08时",
-          "tem": "4℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "09日11时",
-          "tem": "4℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "09日14时",
-          "tem": "6℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "09日17时",
-          "tem": "5℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "09日20时",
-          "tem": "9℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "09日23时",
-          "tem": "9℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "10日02时",
-          "tem": "5℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "10日05时",
-          "tem": "3℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        }
-      ],
-      "index": [
-        {
-          "desc": "感觉有点凉，室外活动注意适当增减衣物。",
-          "level": "凉",
-          "title": "中暑指数"
-        },
-        {
-          "desc": "春天不减肥，夏天徒伤悲。天气较舒适，快去运动吧。",
-          "level": "",
-          "title": "运动指数"
-        },
-        {
-          "desc": "血糖较易波动，注意监测。",
-          "level": "较易波动",
-          "title": "健臻·血糖指数"
-        },
-        {
-          "desc": "建议着厚外套加毛衣等服装。",
-          "level": "较冷",
-          "title": "穿衣指数"
-        },
-        {
-          "desc": "无雨且风力较小，易保持清洁度。",
-          "level": "较适宜",
-          "title": "洗车指数"
-        },
-        {
-          "desc": "辐射弱，涂擦SPF8-12防晒护肤品。",
-          "level": "最弱",
-          "title": "紫外线指数"
-        }
-      ],
-      "tem": "4℃",
-      "tem1": "10℃",
-      "tem2": "3℃",
-      "wea": "阴",
-      "wea_img": "yin",
-      "week": "星期六",
-      "win": [
-        "北风",
-        "北风"
-      ],
-      "win_speed": "&lt;3级"
-    },
-    {
-      "date": "2021-01-10",
-      "day": "10日（周日）",
-      "hours": [
-        {
-          "day": "10日08时",
-          "tem": "3℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "10日14时",
-          "tem": "11℃",
-          "wea": "中雨",
-          "win": "北风",
-          "win_speed": "3-4级"
-        },
-        {
-          "day": "10日20时",
-          "tem": "10℃",
-          "wea": "中雨",
-          "win": "北风",
-          "win_speed": "3-4级"
-        },
-        {
-          "day": "11日02时",
-          "tem": "8℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "3-4级"
-        }
-      ],
-      "index": [
-        {
-          "desc": "感觉有点凉，室外活动注意适当增减衣物。",
-          "level": "凉",
-          "title": "中暑指数"
-        },
-        {
-          "desc": "风雨相伴，坚持室内运动吧。",
-          "level": "",
-          "title": "运动指数"
-        },
-        {
-          "desc": "天气条件不易引起血糖波动。",
-          "level": "不易波动",
-          "title": "健臻·血糖指数"
-        },
-        {
-          "desc": "建议着厚外套加毛衣等服装。",
-          "level": "较冷",
-          "title": "穿衣指数"
-        },
-        {
-          "desc": "有雨，雨水和泥水会弄脏爱车。",
-          "level": "不宜",
-          "title": "洗车指数"
-        },
-        {
-          "desc": "辐射弱，涂擦SPF8-12防晒护肤品。",
-          "level": "最弱",
-          "title": "紫外线指数"
-        }
-      ],
-      "tem": "3℃",
-      "tem1": "12℃",
-      "tem2": "5℃",
-      "wea": "小雨转阴",
-      "wea_img": "yu",
       "week": "星期日",
       "win": [
-        "北风",
         "北风"
       ],
       "win_speed": "3-4级"
     },
     {
       "date": "2021-01-11",
-      "day": "11日（周一）",
+      "day": "11日（明天）",
       "hours": [
         {
           "day": "11日08时",
-          "tem": "5℃",
+          "tem": "6℃",
           "wea": "阴",
           "win": "北风",
           "win_speed": "3-4级"
         },
         {
+          "day": "11日11时",
+          "tem": "9℃",
+          "wea": "多云",
+          "win": "北风",
+          "win_speed": "3-4级"
+        },
+        {
           "day": "11日14时",
-          "tem": "13℃",
+          "tem": "11℃",
           "wea": "多云",
           "win": "北风",
           "win_speed": "3-4级"
         },
         {
+          "day": "11日17时",
+          "tem": "11℃",
+          "wea": "多云",
+          "win": "北风",
+          "win_speed": "3-4级"
+        },
+        {
           "day": "11日20时",
-          "tem": "10℃",
-          "wea": "多云",
+          "tem": "9℃",
+          "wea": "晴",
           "win": "北风",
           "win_speed": "&lt;3级"
         },
         {
+          "day": "11日23时",
+          "tem": "6℃",
+          "wea": "晴",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
           "day": "12日02时",
-          "tem": "5℃",
-          "wea": "多云",
+          "tem": "4℃",
+          "wea": "晴",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "12日05时",
+          "tem": "3℃",
+          "wea": "晴",
           "win": "北风",
           "win_speed": "&lt;3级"
         }
@@ -4328,7 +3534,7 @@
           "title": "穿衣指数"
         },
         {
-          "desc": "路面有积水，车子易被溅上泥水。",
+          "desc": "风力较大，洗车后会蒙上灰尘。",
           "level": "较不宜",
           "title": "洗车指数"
         },
@@ -4338,10 +3544,10 @@
           "title": "紫外线指数"
         }
       ],
-      "tem": "5℃",
-      "tem1": "14℃",
+      "tem": "6℃",
+      "tem1": "12℃",
       "tem2": "3℃",
-      "wea": "多云",
+      "wea": "多云转晴",
       "wea_img": "yun",
       "week": "星期一",
       "win": [
@@ -4352,34 +3558,62 @@
     },
     {
       "date": "2021-01-12",
-      "day": "12日（周二）",
+      "day": "12日（后天）",
       "hours": [
         {
           "day": "12日08时",
           "tem": "4℃",
-          "wea": "多云",
+          "wea": "晴",
           "win": "北风",
           "win_speed": "&lt;3级"
         },
         {
-          "day": "12日14时",
+          "day": "12日11时",
           "tem": "10℃",
           "wea": "晴",
           "win": "北风",
           "win_speed": "&lt;3级"
         },
         {
+          "day": "12日14时",
+          "tem": "15℃",
+          "wea": "晴",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "12日17时",
+          "tem": "15℃",
+          "wea": "晴",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
           "day": "12日20时",
-          "tem": "9℃",
-          "wea": "多云",
+          "tem": "11℃",
+          "wea": "晴",
           "win": "北风",
           "win_speed": "&lt;3级"
         },
         {
+          "day": "12日23时",
+          "tem": "6℃",
+          "wea": "晴",
+          "win": "东风",
+          "win_speed": "&lt;3级"
+        },
+        {
           "day": "13日02时",
+          "tem": "5℃",
+          "wea": "晴",
+          "win": "东风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "13日05时",
           "tem": "4℃",
-          "wea": "多云",
-          "win": "北风",
+          "wea": "晴",
+          "win": "东风",
           "win_speed": "&lt;3级"
         }
       ],
@@ -4395,8 +3629,8 @@
           "title": "运动指数"
         },
         {
-          "desc": "天气条件好，血糖不易波动，可适时进行户外锻炼。",
-          "level": "不易波动",
+          "desc": "气温多变，血糖易波动，请注意监测。",
+          "level": "易波动",
           "title": "健臻·血糖指数"
         },
         {
@@ -4411,19 +3645,19 @@
         },
         {
           "desc": "涂擦SPF大于15、PA+防晒护肤品。",
-          "level": "中等",
+          "level": "强",
           "title": "紫外线指数"
         }
       ],
       "tem": "4℃",
-      "tem1": "15℃",
+      "tem1": "16℃",
       "tem2": "3℃",
-      "wea": "多云",
-      "wea_img": "yun",
+      "wea": "晴",
+      "wea_img": "qing",
       "week": "星期二",
       "win": [
         "北风",
-        "北风"
+        "东风"
       ],
       "win_speed": "&lt;3级"
     },
@@ -4433,37 +3667,51 @@
       "hours": [
         {
           "day": "13日08时",
-          "tem": "4℃",
+          "tem": "5℃",
           "wea": "晴",
-          "win": "北风",
+          "win": "东风",
           "win_speed": "&lt;3级"
         },
         {
+          "day": "13日11时",
+          "tem": "13℃",
+          "wea": "晴",
+          "win": "东风",
+          "win_speed": "&lt;3级"
+        },
+        {
           "day": "13日14时",
+          "tem": "18℃",
+          "wea": "晴",
+          "win": "东风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "13日17时",
+          "tem": "18℃",
+          "wea": "晴",
+          "win": "东风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "13日20时",
+          "tem": "13℃",
+          "wea": "晴",
+          "win": "东风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "14日02时",
           "tem": "9℃",
           "wea": "多云",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "13日20时",
-          "tem": "8℃",
-          "wea": "多云",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "14日02时",
-          "tem": "5℃",
-          "wea": "多云",
-          "win": "北风",
+          "win": "南风",
           "win_speed": "&lt;3级"
         }
       ],
       "index": [
         {
-          "desc": "感觉有点凉，室外活动注意适当增减衣物。",
-          "level": "凉",
+          "desc": "温度未达到风寒所需的低温，稍作防寒准备即可。",
+          "level": "无",
           "title": "中暑指数"
         },
         {
@@ -4477,8 +3725,8 @@
           "title": "健臻·血糖指数"
         },
         {
-          "desc": "建议着厚外套加毛衣等服装。",
-          "level": "较冷",
+          "desc": "建议穿薄外套或牛仔裤等服装。",
+          "level": "较舒适",
           "title": "穿衣指数"
         },
         {
@@ -4488,808 +3736,1581 @@
         },
         {
           "desc": "涂擦SPF大于15、PA+防晒护肤品。",
-          "level": "中等",
+          "level": "强",
           "title": "紫外线指数"
         }
       ],
-      "tem": "4℃",
-      "tem1": "12℃",
-      "tem2": "4℃",
-      "wea": "多云",
+      "tem": "5℃",
+      "tem1": "19℃",
+      "tem2": "5℃",
+      "wea": "晴转多云",
       "wea_img": "yun",
       "week": "星期三",
       "win": [
-        "北风",
-        "北风"
+        "东风",
+        "南风"
+      ],
+      "win_speed": "&lt;3级"
+    },
+    {
+      "date": "2021-01-14",
+      "day": "14日（周四）",
+      "hours": [
+        {
+          "day": "14日08时",
+          "tem": "8℃",
+          "wea": "多云",
+          "win": "南风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "14日14时",
+          "tem": "20℃",
+          "wea": "晴",
+          "win": "南风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "14日20时",
+          "tem": "15℃",
+          "wea": "晴",
+          "win": "南风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "15日02时",
+          "tem": "11℃",
+          "wea": "晴",
+          "win": "南风",
+          "win_speed": "&lt;3级"
+        }
+      ],
+      "index": [
+        {
+          "desc": "温度未达到风寒所需的低温，稍作防寒准备即可。",
+          "level": "无",
+          "title": "中暑指数"
+        },
+        {
+          "desc": "春天不减肥，夏天徒伤悲。天气较舒适，快去运动吧。",
+          "level": "",
+          "title": "运动指数"
+        },
+        {
+          "desc": "天气条件好，血糖不易波动，可适时进行户外锻炼。",
+          "level": "不易波动",
+          "title": "健臻·血糖指数"
+        },
+        {
+          "desc": "建议穿薄外套或牛仔裤等服装。",
+          "level": "较舒适",
+          "title": "穿衣指数"
+        },
+        {
+          "desc": "天气较好，适合擦洗汽车。",
+          "level": "适宜",
+          "title": "洗车指数"
+        },
+        {
+          "desc": "涂擦SPF大于15、PA+防晒护肤品。",
+          "level": "强",
+          "title": "紫外线指数"
+        }
+      ],
+      "tem": "8℃",
+      "tem1": "21℃",
+      "tem2": "7℃",
+      "wea": "多云",
+      "wea_img": "yun",
+      "week": "星期四",
+      "win": [
+        "南风",
+        "南风"
+      ],
+      "win_speed": "&lt;3级"
+    },
+    {
+      "date": "2021-01-15",
+      "day": "15日（周五）",
+      "hours": [
+        {
+          "day": "15日08时",
+          "tem": "9℃",
+          "wea": "晴",
+          "win": "南风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "15日14时",
+          "tem": "21℃",
+          "wea": "晴",
+          "win": "南风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "15日20时",
+          "tem": "18℃",
+          "wea": "晴",
+          "win": "南风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "16日02时",
+          "tem": "12℃",
+          "wea": "晴",
+          "win": "南风",
+          "win_speed": "&lt;3级"
+        }
+      ],
+      "index": [
+        {
+          "desc": "温度未达到风寒所需的低温，稍作防寒准备即可。",
+          "level": "无",
+          "title": "中暑指数"
+        },
+        {
+          "desc": "春天不减肥，夏天徒伤悲。天气较舒适，快去运动吧。",
+          "level": "",
+          "title": "运动指数"
+        },
+        {
+          "desc": "天气条件好，血糖不易波动，可适时进行户外锻炼。",
+          "level": "不易波动",
+          "title": "健臻·血糖指数"
+        },
+        {
+          "desc": "建议穿薄外套或牛仔裤等服装。",
+          "level": "较舒适",
+          "title": "穿衣指数"
+        },
+        {
+          "desc": "天气较好，适合擦洗汽车。",
+          "level": "适宜",
+          "title": "洗车指数"
+        },
+        {
+          "desc": "涂擦SPF大于15、PA+防晒护肤品。",
+          "level": "强",
+          "title": "紫外线指数"
+        }
+      ],
+      "tem": "9℃",
+      "tem1": "22℃",
+      "tem2": "9℃",
+      "wea": "多云",
+      "wea_img": "yun",
+      "week": "星期五",
+      "win": [
+        "南风",
+        "南风"
+      ],
+      "win_speed": "&lt;3级"
+    },
+    {
+      "date": "2021-01-16",
+      "day": "16日（周六）",
+      "hours": [
+        {
+          "day": "16日08时",
+          "tem": "10℃",
+          "wea": "多云",
+          "win": "南风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "16日14时",
+          "tem": "20℃",
+          "wea": "多云",
+          "win": "南风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "16日20时",
+          "tem": "18℃",
+          "wea": "多云",
+          "win": "南风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "17日02时",
+          "tem": "14℃",
+          "wea": "阴",
+          "win": "南风",
+          "win_speed": "&lt;3级"
+        }
+      ],
+      "index": [
+        {
+          "desc": "温度未达到风寒所需的低温，稍作防寒准备即可。",
+          "level": "无",
+          "title": "中暑指数"
+        },
+        {
+          "desc": "春天不减肥，夏天徒伤悲。天气较舒适，快去运动吧。",
+          "level": "",
+          "title": "运动指数"
+        },
+        {
+          "desc": "血糖较易波动，注意监测。",
+          "level": "较易波动",
+          "title": "健臻·血糖指数"
+        },
+        {
+          "desc": "建议穿薄外套或牛仔裤等服装。",
+          "level": "较舒适",
+          "title": "穿衣指数"
+        },
+        {
+          "desc": "天气较好，适合擦洗汽车。",
+          "level": "适宜",
+          "title": "洗车指数"
+        },
+        {
+          "desc": "辐射较弱，涂擦SPF12-15、PA+护肤品。",
+          "level": "弱",
+          "title": "紫外线指数"
+        }
+      ],
+      "tem": "10℃",
+      "tem1": "23℃",
+      "tem2": "10℃",
+      "wea": "多云转阴",
+      "wea_img": "yun",
+      "week": "星期六",
+      "win": [
+        "南风",
+        "南风"
       ],
       "win_speed": "&lt;3级"
     }
   ],
-  "update_time": "2021-01-07 15:57:17"
+  "update_time": "2021-01-10 18:16:18"
 }</t>
-        </is>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:O204"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="14.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="N5" s="3" t="n"/>
-      <c r="O5" s="3" t="n"/>
-    </row>
-    <row r="6" ht="35.25" customHeight="1" s="4">
-      <c r="A6" s="3" t="n"/>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" s="3" t="n"/>
-      <c r="J6" s="3" t="n"/>
-      <c r="K6" s="3" t="n"/>
-      <c r="L6" s="3" t="n"/>
-      <c r="M6" s="3" t="n"/>
-      <c r="N6" s="3" t="n"/>
-      <c r="O6" s="3" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
-      <c r="H7" s="3" t="n"/>
-      <c r="I7" s="3" t="n"/>
-      <c r="J7" s="3" t="n"/>
-      <c r="K7" s="3" t="n"/>
-      <c r="L7" s="3" t="n"/>
-      <c r="M7" s="3" t="n"/>
-      <c r="N7" s="3" t="n"/>
-      <c r="O7" s="3" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
-      <c r="H8" s="3" t="n"/>
-      <c r="I8" s="3" t="n"/>
-      <c r="J8" s="3" t="n"/>
-      <c r="K8" s="3" t="n"/>
-      <c r="L8" s="3" t="n"/>
-      <c r="M8" s="3" t="n"/>
-      <c r="N8" s="3" t="n"/>
-      <c r="O8" s="3" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
-      <c r="H9" s="3" t="n"/>
-      <c r="I9" s="3" t="n"/>
-      <c r="J9" s="3" t="n"/>
-      <c r="K9" s="3" t="n"/>
-      <c r="L9" s="3" t="n"/>
-      <c r="M9" s="3" t="n"/>
-      <c r="N9" s="3" t="n"/>
-      <c r="O9" s="3" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
-      <c r="H10" s="3" t="n"/>
-      <c r="I10" s="3" t="n"/>
-      <c r="J10" s="3" t="n"/>
-      <c r="K10" s="3" t="n"/>
-      <c r="L10" s="3" t="n"/>
-      <c r="M10" s="3" t="n"/>
-      <c r="N10" s="3" t="n"/>
-      <c r="O10" s="3" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n"/>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
-      <c r="H11" s="3" t="n"/>
-      <c r="I11" s="3" t="n"/>
-      <c r="J11" s="3" t="n"/>
-      <c r="K11" s="3" t="n"/>
-      <c r="L11" s="3" t="n"/>
-      <c r="M11" s="3" t="n"/>
-      <c r="N11" s="3" t="n"/>
-      <c r="O11" s="3" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n"/>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
-      <c r="H12" s="3" t="n"/>
-      <c r="I12" s="3" t="n"/>
-      <c r="J12" s="3" t="n"/>
-      <c r="K12" s="3" t="n"/>
-      <c r="L12" s="3" t="n"/>
-      <c r="M12" s="3" t="n"/>
-      <c r="N12" s="3" t="n"/>
-      <c r="O12" s="3" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n"/>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
-      <c r="H13" s="3" t="n"/>
-      <c r="I13" s="3" t="n"/>
-      <c r="J13" s="3" t="n"/>
-      <c r="K13" s="3" t="n"/>
-      <c r="L13" s="3" t="n"/>
-      <c r="M13" s="3" t="n"/>
-      <c r="N13" s="3" t="n"/>
-      <c r="O13" s="3" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n"/>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
-      <c r="H14" s="3" t="n"/>
-      <c r="I14" s="3" t="n"/>
-      <c r="J14" s="3" t="n"/>
-      <c r="K14" s="3" t="n"/>
-      <c r="L14" s="3" t="n"/>
-      <c r="M14" s="3" t="n"/>
-      <c r="N14" s="3" t="n"/>
-      <c r="O14" s="3" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
-      <c r="H15" s="3" t="n"/>
-      <c r="I15" s="3" t="n"/>
-      <c r="J15" s="3" t="n"/>
-      <c r="K15" s="3" t="n"/>
-      <c r="L15" s="3" t="n"/>
-      <c r="M15" s="3" t="n"/>
-      <c r="N15" s="3" t="n"/>
-      <c r="O15" s="3" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="3" t="n"/>
-      <c r="D16" s="3" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
-      <c r="H16" s="3" t="n"/>
-      <c r="I16" s="3" t="n"/>
-      <c r="J16" s="3" t="n"/>
-      <c r="K16" s="3" t="n"/>
-      <c r="L16" s="3" t="n"/>
-      <c r="M16" s="3" t="n"/>
-      <c r="N16" s="3" t="n"/>
-      <c r="O16" s="3" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n"/>
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="3" t="n"/>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
-      <c r="H17" s="3" t="n"/>
-      <c r="I17" s="3" t="n"/>
-      <c r="J17" s="3" t="n"/>
-      <c r="K17" s="3" t="n"/>
-      <c r="L17" s="3" t="n"/>
-      <c r="M17" s="3" t="n"/>
-      <c r="N17" s="3" t="n"/>
-      <c r="O17" s="3" t="n"/>
-    </row>
-    <row r="18">
-      <c r="K18" s="2" t="n"/>
-    </row>
-    <row r="19">
-      <c r="K19" s="2" t="n"/>
-    </row>
-    <row r="20">
-      <c r="K20" s="2" t="n"/>
-    </row>
-    <row r="21">
-      <c r="K21" s="2" t="n"/>
-    </row>
-    <row r="22">
-      <c r="K22" s="2" t="n"/>
-    </row>
-    <row r="23">
-      <c r="K23" s="2" t="n"/>
-    </row>
-    <row r="24">
-      <c r="K24" s="2" t="n"/>
-    </row>
-    <row r="25">
-      <c r="K25" s="2" t="n"/>
-    </row>
-    <row r="26">
-      <c r="K26" s="2" t="n"/>
-    </row>
-    <row r="27">
-      <c r="K27" s="2" t="n"/>
-    </row>
-    <row r="28">
-      <c r="K28" s="2" t="n"/>
-    </row>
-    <row r="29">
-      <c r="K29" s="2" t="n"/>
-    </row>
-    <row r="30">
-      <c r="K30" s="2" t="n"/>
-    </row>
-    <row r="31">
-      <c r="K31" s="2" t="n"/>
-    </row>
-    <row r="32">
-      <c r="K32" s="2" t="n"/>
-    </row>
-    <row r="33">
-      <c r="K33" s="2" t="n"/>
-    </row>
-    <row r="34">
-      <c r="K34" s="2" t="n"/>
-    </row>
-    <row r="35">
-      <c r="K35" s="2" t="n"/>
-    </row>
-    <row r="36">
-      <c r="K36" s="2" t="n"/>
-    </row>
-    <row r="37">
-      <c r="K37" s="2" t="n"/>
-    </row>
-    <row r="38">
-      <c r="K38" s="2" t="n"/>
-    </row>
-    <row r="39">
-      <c r="K39" s="2" t="n"/>
-    </row>
-    <row r="40">
-      <c r="K40" s="2" t="n"/>
-    </row>
-    <row r="41">
-      <c r="K41" s="2" t="n"/>
-    </row>
-    <row r="42">
-      <c r="K42" s="2" t="n"/>
-    </row>
-    <row r="43">
-      <c r="K43" s="2" t="n"/>
-    </row>
-    <row r="44">
-      <c r="K44" s="2" t="n"/>
-    </row>
-    <row r="45">
-      <c r="K45" s="2" t="n"/>
-    </row>
-    <row r="46">
-      <c r="K46" s="2" t="n"/>
-    </row>
-    <row r="47">
-      <c r="K47" s="2" t="n"/>
-    </row>
-    <row r="48">
-      <c r="K48" s="2" t="n"/>
-    </row>
-    <row r="49">
-      <c r="K49" s="2" t="n"/>
-    </row>
-    <row r="50">
-      <c r="K50" s="2" t="n"/>
-    </row>
-    <row r="51">
-      <c r="K51" s="2" t="n"/>
-    </row>
-    <row r="52">
-      <c r="K52" s="2" t="n"/>
-    </row>
-    <row r="53">
-      <c r="K53" s="2" t="n"/>
-    </row>
-    <row r="54">
-      <c r="K54" s="2" t="n"/>
-    </row>
-    <row r="55">
-      <c r="K55" s="2" t="n"/>
-    </row>
-    <row r="56">
-      <c r="K56" s="2" t="n"/>
-    </row>
-    <row r="57">
-      <c r="K57" s="2" t="n"/>
-    </row>
-    <row r="58">
-      <c r="K58" s="2" t="n"/>
-    </row>
-    <row r="59">
-      <c r="K59" s="2" t="n"/>
-    </row>
-    <row r="60">
-      <c r="K60" s="2" t="n"/>
-    </row>
-    <row r="61">
-      <c r="K61" s="2" t="n"/>
-    </row>
-    <row r="62">
-      <c r="K62" s="2" t="n"/>
-    </row>
-    <row r="63">
-      <c r="K63" s="2" t="n"/>
-    </row>
-    <row r="64">
-      <c r="K64" s="2" t="n"/>
-    </row>
-    <row r="65">
-      <c r="K65" s="2" t="n"/>
-    </row>
-    <row r="66">
-      <c r="K66" s="2" t="n"/>
-    </row>
-    <row r="67">
-      <c r="K67" s="2" t="n"/>
-    </row>
-    <row r="68">
-      <c r="K68" s="2" t="n"/>
-    </row>
-    <row r="69">
-      <c r="K69" s="2" t="n"/>
-    </row>
-    <row r="70">
-      <c r="K70" s="2" t="n"/>
-    </row>
-    <row r="71">
-      <c r="K71" s="2" t="n"/>
-    </row>
-    <row r="72">
-      <c r="K72" s="2" t="n"/>
-    </row>
-    <row r="73">
-      <c r="K73" s="2" t="n"/>
-    </row>
-    <row r="74">
-      <c r="K74" s="2" t="n"/>
-    </row>
-    <row r="75">
-      <c r="K75" s="2" t="n"/>
-    </row>
-    <row r="76">
-      <c r="K76" s="2" t="n"/>
-    </row>
-    <row r="77">
-      <c r="K77" s="2" t="n"/>
-    </row>
-    <row r="78">
-      <c r="K78" s="2" t="n"/>
-    </row>
-    <row r="79">
-      <c r="K79" s="2" t="n"/>
-    </row>
-    <row r="80">
-      <c r="K80" s="2" t="n"/>
-    </row>
-    <row r="81">
-      <c r="K81" s="2" t="n"/>
-    </row>
-    <row r="82">
-      <c r="K82" s="2" t="n"/>
-    </row>
-    <row r="83">
-      <c r="K83" s="2" t="n"/>
-    </row>
-    <row r="84">
-      <c r="K84" s="2" t="n"/>
-    </row>
-    <row r="85">
-      <c r="K85" s="2" t="n"/>
-    </row>
-    <row r="86">
-      <c r="K86" s="2" t="n"/>
-    </row>
-    <row r="87">
-      <c r="K87" s="2" t="n"/>
-    </row>
-    <row r="88">
-      <c r="K88" s="2" t="n"/>
-    </row>
-    <row r="89">
-      <c r="K89" s="2" t="n"/>
-    </row>
-    <row r="90">
-      <c r="K90" s="2" t="n"/>
-    </row>
-    <row r="91">
-      <c r="K91" s="2" t="n"/>
-    </row>
-    <row r="92">
-      <c r="K92" s="2" t="n"/>
-    </row>
-    <row r="93">
-      <c r="K93" s="2" t="n"/>
-    </row>
-    <row r="94">
-      <c r="K94" s="2" t="n"/>
-    </row>
-    <row r="95">
-      <c r="K95" s="2" t="n"/>
-    </row>
-    <row r="96">
-      <c r="K96" s="2" t="n"/>
-    </row>
-    <row r="97">
-      <c r="K97" s="2" t="n"/>
-    </row>
-    <row r="98">
-      <c r="K98" s="2" t="n"/>
-    </row>
-    <row r="99">
-      <c r="K99" s="2" t="n"/>
-    </row>
-    <row r="100">
-      <c r="K100" s="2" t="n"/>
-    </row>
-    <row r="101">
-      <c r="K101" s="2" t="n"/>
-    </row>
-    <row r="102">
-      <c r="K102" s="2" t="n"/>
-    </row>
-    <row r="103">
-      <c r="K103" s="2" t="n"/>
-    </row>
-    <row r="104">
-      <c r="K104" s="2" t="n"/>
-    </row>
-    <row r="105">
-      <c r="K105" s="2" t="n"/>
-    </row>
-    <row r="106">
-      <c r="K106" s="2" t="n"/>
-    </row>
-    <row r="107">
-      <c r="K107" s="2" t="n"/>
-    </row>
-    <row r="108">
-      <c r="K108" s="2" t="n"/>
-    </row>
-    <row r="109">
-      <c r="K109" s="2" t="n"/>
-    </row>
-    <row r="110">
-      <c r="K110" s="2" t="n"/>
-    </row>
-    <row r="111">
-      <c r="K111" s="2" t="n"/>
-    </row>
-    <row r="112">
-      <c r="K112" s="2" t="n"/>
-    </row>
-    <row r="113">
-      <c r="K113" s="2" t="n"/>
-    </row>
-    <row r="114">
-      <c r="K114" s="2" t="n"/>
-    </row>
-    <row r="115">
-      <c r="K115" s="2" t="n"/>
-    </row>
-    <row r="116">
-      <c r="K116" s="2" t="n"/>
-    </row>
-    <row r="117">
-      <c r="K117" s="2" t="n"/>
-    </row>
-    <row r="118">
-      <c r="K118" s="2" t="n"/>
-    </row>
-    <row r="119">
-      <c r="K119" s="2" t="n"/>
-    </row>
-    <row r="120">
-      <c r="K120" s="2" t="n"/>
-    </row>
-    <row r="121">
-      <c r="K121" s="2" t="n"/>
-    </row>
-    <row r="122">
-      <c r="K122" s="2" t="n"/>
-    </row>
-    <row r="123">
-      <c r="K123" s="2" t="n"/>
-    </row>
-    <row r="124">
-      <c r="K124" s="2" t="n"/>
-    </row>
-    <row r="125">
-      <c r="K125" s="2" t="n"/>
-    </row>
-    <row r="126">
-      <c r="K126" s="2" t="n"/>
-    </row>
-    <row r="127">
-      <c r="K127" s="2" t="n"/>
-    </row>
-    <row r="128">
-      <c r="K128" s="2" t="n"/>
-    </row>
-    <row r="129">
-      <c r="K129" s="2" t="n"/>
-    </row>
-    <row r="130">
-      <c r="K130" s="2" t="n"/>
-    </row>
-    <row r="131">
-      <c r="K131" s="2" t="n"/>
-    </row>
-    <row r="132">
-      <c r="K132" s="2" t="n"/>
-    </row>
-    <row r="133">
-      <c r="K133" s="2" t="n"/>
-    </row>
-    <row r="134">
-      <c r="K134" s="2" t="n"/>
-    </row>
-    <row r="135">
-      <c r="K135" s="2" t="n"/>
-    </row>
-    <row r="136">
-      <c r="K136" s="2" t="n"/>
-    </row>
-    <row r="137">
-      <c r="K137" s="2" t="n"/>
-    </row>
-    <row r="138">
-      <c r="K138" s="2" t="n"/>
-    </row>
-    <row r="139">
-      <c r="K139" s="2" t="n"/>
-    </row>
-    <row r="140">
-      <c r="K140" s="2" t="n"/>
-    </row>
-    <row r="141">
-      <c r="K141" s="2" t="n"/>
-    </row>
-    <row r="142">
-      <c r="K142" s="2" t="n"/>
-    </row>
-    <row r="143">
-      <c r="K143" s="2" t="n"/>
-    </row>
-    <row r="144">
-      <c r="K144" s="2" t="n"/>
-    </row>
-    <row r="145">
-      <c r="K145" s="2" t="n"/>
-    </row>
-    <row r="146">
-      <c r="K146" s="2" t="n"/>
-    </row>
-    <row r="147">
-      <c r="K147" s="2" t="n"/>
-    </row>
-    <row r="148">
-      <c r="K148" s="2" t="n"/>
-    </row>
-    <row r="149">
-      <c r="K149" s="2" t="n"/>
-    </row>
-    <row r="150">
-      <c r="K150" s="2" t="n"/>
-    </row>
-    <row r="151">
-      <c r="K151" s="2" t="n"/>
-    </row>
-    <row r="152">
-      <c r="K152" s="2" t="n"/>
-    </row>
-    <row r="153">
-      <c r="K153" s="2" t="n"/>
-    </row>
-    <row r="154">
-      <c r="K154" s="2" t="n"/>
-    </row>
-    <row r="155">
-      <c r="K155" s="2" t="n"/>
-    </row>
-    <row r="156">
-      <c r="K156" s="2" t="n"/>
-    </row>
-    <row r="157">
-      <c r="K157" s="2" t="n"/>
-    </row>
-    <row r="158">
-      <c r="K158" s="2" t="n"/>
-    </row>
-    <row r="159">
-      <c r="K159" s="2" t="n"/>
-    </row>
-    <row r="160">
-      <c r="K160" s="2" t="n"/>
-    </row>
-    <row r="161">
-      <c r="K161" s="2" t="n"/>
-    </row>
-    <row r="162">
-      <c r="K162" s="2" t="n"/>
-    </row>
-    <row r="163">
-      <c r="K163" s="2" t="n"/>
-    </row>
-    <row r="164">
-      <c r="K164" s="2" t="n"/>
-    </row>
-    <row r="165">
-      <c r="K165" s="2" t="n"/>
-    </row>
-    <row r="166">
-      <c r="K166" s="2" t="n"/>
-    </row>
-    <row r="167">
-      <c r="K167" s="2" t="n"/>
-    </row>
-    <row r="168">
-      <c r="K168" s="2" t="n"/>
-    </row>
-    <row r="169">
-      <c r="K169" s="2" t="n"/>
-    </row>
-    <row r="170">
-      <c r="K170" s="2" t="n"/>
-    </row>
-    <row r="171">
-      <c r="K171" s="2" t="n"/>
-    </row>
-    <row r="172">
-      <c r="K172" s="2" t="n"/>
-    </row>
-    <row r="173">
-      <c r="K173" s="2" t="n"/>
-    </row>
-    <row r="174">
-      <c r="K174" s="2" t="n"/>
-    </row>
-    <row r="175">
-      <c r="K175" s="2" t="n"/>
-    </row>
-    <row r="176">
-      <c r="K176" s="2" t="n"/>
-    </row>
-    <row r="177">
-      <c r="K177" s="2" t="n"/>
-    </row>
-    <row r="178">
-      <c r="K178" s="2" t="n"/>
-    </row>
-    <row r="179">
-      <c r="K179" s="2" t="n"/>
-    </row>
-    <row r="180">
-      <c r="K180" s="2" t="n"/>
-    </row>
-    <row r="181">
-      <c r="K181" s="2" t="n"/>
-    </row>
-    <row r="182">
-      <c r="K182" s="2" t="n"/>
-    </row>
-    <row r="183">
-      <c r="K183" s="2" t="n"/>
-    </row>
-    <row r="184">
-      <c r="K184" s="2" t="n"/>
-    </row>
-    <row r="185">
-      <c r="K185" s="2" t="n"/>
-    </row>
-    <row r="186">
-      <c r="K186" s="2" t="n"/>
-    </row>
-    <row r="187">
-      <c r="K187" s="2" t="n"/>
-    </row>
-    <row r="188">
-      <c r="K188" s="2" t="n"/>
-    </row>
-    <row r="189">
-      <c r="K189" s="2" t="n"/>
-    </row>
-    <row r="190">
-      <c r="K190" s="2" t="n"/>
-    </row>
-    <row r="191">
-      <c r="K191" s="2" t="n"/>
-    </row>
-    <row r="192">
-      <c r="K192" s="2" t="n"/>
-    </row>
-    <row r="193">
-      <c r="K193" s="2" t="n"/>
-    </row>
-    <row r="194">
-      <c r="K194" s="2" t="n"/>
-    </row>
-    <row r="195">
-      <c r="K195" s="2" t="n"/>
-    </row>
-    <row r="196">
-      <c r="K196" s="2" t="n"/>
-    </row>
-    <row r="197">
-      <c r="K197" s="2" t="n"/>
-    </row>
-    <row r="198">
-      <c r="K198" s="2" t="n"/>
-    </row>
-    <row r="199">
-      <c r="K199" s="2" t="n"/>
-    </row>
-    <row r="200">
-      <c r="K200" s="2" t="n"/>
-    </row>
-    <row r="201">
-      <c r="K201" s="2" t="n"/>
-    </row>
-    <row r="202">
-      <c r="K202" s="2" t="n"/>
-    </row>
-    <row r="203">
-      <c r="K203" s="2" t="n"/>
-    </row>
-    <row r="204">
-      <c r="K204" s="2" t="n"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K82" s="2"/>
+    </row>
+    <row r="83" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="2"/>
+    </row>
+    <row r="84" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="2"/>
+    </row>
+    <row r="85" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="2"/>
+    </row>
+    <row r="86" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="2"/>
+    </row>
+    <row r="87" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="2"/>
+    </row>
+    <row r="88" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="2"/>
+    </row>
+    <row r="89" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="2"/>
+    </row>
+    <row r="90" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="2"/>
+    </row>
+    <row r="92" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="2"/>
+    </row>
+    <row r="93" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="2"/>
+    </row>
+    <row r="94" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="2"/>
+    </row>
+    <row r="95" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K95" s="2"/>
+    </row>
+    <row r="96" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="2"/>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="2"/>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="2"/>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="2"/>
+    </row>
+    <row r="101" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="2"/>
+    </row>
+    <row r="102" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K102" s="2"/>
+    </row>
+    <row r="103" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K103" s="2"/>
+    </row>
+    <row r="104" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K104" s="2"/>
+    </row>
+    <row r="105" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K105" s="2"/>
+    </row>
+    <row r="106" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K106" s="2"/>
+    </row>
+    <row r="107" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K107" s="2"/>
+    </row>
+    <row r="108" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K108" s="2"/>
+    </row>
+    <row r="109" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K109" s="2"/>
+    </row>
+    <row r="110" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K110" s="2"/>
+    </row>
+    <row r="111" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K111" s="2"/>
+    </row>
+    <row r="112" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K112" s="2"/>
+    </row>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K113" s="2"/>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K114" s="2"/>
+    </row>
+    <row r="115" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K115" s="2"/>
+    </row>
+    <row r="116" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K116" s="2"/>
+    </row>
+    <row r="117" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K117" s="2"/>
+    </row>
+    <row r="118" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K118" s="2"/>
+    </row>
+    <row r="119" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K119" s="2"/>
+    </row>
+    <row r="120" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K120" s="2"/>
+    </row>
+    <row r="121" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K121" s="2"/>
+    </row>
+    <row r="122" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K122" s="2"/>
+    </row>
+    <row r="123" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K123" s="2"/>
+    </row>
+    <row r="124" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K124" s="2"/>
+    </row>
+    <row r="125" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K125" s="2"/>
+    </row>
+    <row r="126" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K126" s="2"/>
+    </row>
+    <row r="127" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K127" s="2"/>
+    </row>
+    <row r="128" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K128" s="2"/>
+    </row>
+    <row r="129" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K129" s="2"/>
+    </row>
+    <row r="130" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K130" s="2"/>
+    </row>
+    <row r="131" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K131" s="2"/>
+    </row>
+    <row r="132" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K132" s="2"/>
+    </row>
+    <row r="133" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K133" s="2"/>
+    </row>
+    <row r="134" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K134" s="2"/>
+    </row>
+    <row r="135" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K135" s="2"/>
+    </row>
+    <row r="136" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K136" s="2"/>
+    </row>
+    <row r="137" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K137" s="2"/>
+    </row>
+    <row r="138" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K138" s="2"/>
+    </row>
+    <row r="139" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K139" s="2"/>
+    </row>
+    <row r="140" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K140" s="2"/>
+    </row>
+    <row r="141" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K141" s="2"/>
+    </row>
+    <row r="142" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K142" s="2"/>
+    </row>
+    <row r="143" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K143" s="2"/>
+    </row>
+    <row r="144" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K144" s="2"/>
+    </row>
+    <row r="145" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K145" s="2"/>
+    </row>
+    <row r="146" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K146" s="2"/>
+    </row>
+    <row r="147" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K147" s="2"/>
+    </row>
+    <row r="148" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K148" s="2"/>
+    </row>
+    <row r="149" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K149" s="2"/>
+    </row>
+    <row r="150" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K150" s="2"/>
+    </row>
+    <row r="151" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K151" s="2"/>
+    </row>
+    <row r="152" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K152" s="2"/>
+    </row>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K153" s="2"/>
+    </row>
+    <row r="154" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K154" s="2"/>
+    </row>
+    <row r="155" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K155" s="2"/>
+    </row>
+    <row r="156" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K156" s="2"/>
+    </row>
+    <row r="157" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K157" s="2"/>
+    </row>
+    <row r="158" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K158" s="2"/>
+    </row>
+    <row r="159" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K159" s="2"/>
+    </row>
+    <row r="160" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K160" s="2"/>
+    </row>
+    <row r="161" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K161" s="2"/>
+    </row>
+    <row r="162" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K162" s="2"/>
+    </row>
+    <row r="163" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K163" s="2"/>
+    </row>
+    <row r="164" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K164" s="2"/>
+    </row>
+    <row r="165" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K165" s="2"/>
+    </row>
+    <row r="166" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K166" s="2"/>
+    </row>
+    <row r="167" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K167" s="2"/>
+    </row>
+    <row r="168" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K168" s="2"/>
+    </row>
+    <row r="169" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K169" s="2"/>
+    </row>
+    <row r="170" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K170" s="2"/>
+    </row>
+    <row r="171" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K171" s="2"/>
+    </row>
+    <row r="172" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K172" s="2"/>
+    </row>
+    <row r="173" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K173" s="2"/>
+    </row>
+    <row r="174" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K174" s="2"/>
+    </row>
+    <row r="175" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K175" s="2"/>
+    </row>
+    <row r="176" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K176" s="2"/>
+    </row>
+    <row r="177" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K177" s="2"/>
+    </row>
+    <row r="178" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K178" s="2"/>
+    </row>
+    <row r="179" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K179" s="2"/>
+    </row>
+    <row r="180" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K180" s="2"/>
+    </row>
+    <row r="181" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K181" s="2"/>
+    </row>
+    <row r="182" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K182" s="2"/>
+    </row>
+    <row r="183" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K183" s="2"/>
+    </row>
+    <row r="184" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K184" s="2"/>
+    </row>
+    <row r="185" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K185" s="2"/>
+    </row>
+    <row r="186" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K186" s="2"/>
+    </row>
+    <row r="187" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K187" s="2"/>
+    </row>
+    <row r="188" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K188" s="2"/>
+    </row>
+    <row r="189" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K189" s="2"/>
+    </row>
+    <row r="190" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K190" s="2"/>
+    </row>
+    <row r="191" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K191" s="2"/>
+    </row>
+    <row r="192" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K192" s="2"/>
+    </row>
+    <row r="193" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K193" s="2"/>
+    </row>
+    <row r="194" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K194" s="2"/>
+    </row>
+    <row r="195" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K195" s="2"/>
+    </row>
+    <row r="196" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K196" s="2"/>
+    </row>
+    <row r="197" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K197" s="2"/>
+    </row>
+    <row r="198" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K198" s="2"/>
+    </row>
+    <row r="199" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K199" s="2"/>
+    </row>
+    <row r="200" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K200" s="2"/>
+    </row>
+    <row r="201" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K201" s="2"/>
+    </row>
+    <row r="202" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K202" s="2"/>
+    </row>
+    <row r="203" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K203" s="2"/>
+    </row>
+    <row r="204" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K204" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/dataconfig/case.xlsx
+++ b/dataconfig/case.xlsx
@@ -1,84 +1,478 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work_python\api_autotest\dataconfig\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="16335" windowHeight="10830"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="90" windowWidth="16335" windowHeight="10830" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" calcOnSave="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1" calcOnSave="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>模块</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>是否运行</t>
-  </si>
-  <si>
-    <t>请求类型</t>
-  </si>
-  <si>
-    <t>是否携带header</t>
-  </si>
-  <si>
-    <t>依赖case</t>
-  </si>
-  <si>
-    <t>依赖的返回字段</t>
-  </si>
-  <si>
-    <t>数据依赖字段</t>
-  </si>
-  <si>
-    <t>请求数据</t>
-  </si>
-  <si>
-    <t>预期返回结果</t>
-  </si>
-  <si>
-    <t>实际返回结果</t>
-  </si>
-  <si>
-    <t>测试结果</t>
-  </si>
-  <si>
-    <t>case1</t>
-  </si>
-  <si>
-    <t>车站查询接口</t>
-  </si>
-  <si>
-    <t>https://api.binstd.com/train/station2s</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>{"appkey": "935a981af6aec3b9", "start": "武汉", "end": "杭州", "ishigh": "0"}</t>
-  </si>
-  <si>
-    <t>{
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
+      <sz val="9"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O204"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <cols>
+    <col width="14.7109375" customWidth="1" style="4" min="6" max="6"/>
+    <col width="14.140625" customWidth="1" style="4" min="8" max="8"/>
+    <col width="11.85546875" customWidth="1" style="4" min="9" max="9"/>
+    <col width="12.5703125" customWidth="1" style="4" min="11" max="11"/>
+    <col width="12.85546875" customWidth="1" style="4" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21" customHeight="1" s="4">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>模块</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>是否运行</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>请求类型</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>是否携带header</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>依赖case</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>依赖的返回字段</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>数据依赖字段</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>请求数据</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>预期返回结果</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>实际返回结果</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>测试结果</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2" ht="42.75" customHeight="1" s="4">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>case1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>车站查询接口</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>https://api.binstd.com/train/station2s</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>{"appkey": "935a981af6aec3b9", "start": "武汉", "end": "杭州", "ishigh": "0"}</t>
+        </is>
+      </c>
+      <c r="K2" s="5" t="inlineStr">
+        <is>
+          <t>{
   "msg": "ok",
   "result": {
     "date": "2021-01-05",
@@ -281,27 +675,55 @@
   },
   "status": 0
 }</t>
-  </si>
-  <si>
-    <t>Skip</t>
-  </si>
-  <si>
-    <t>case2</t>
-  </si>
-  <si>
-    <t>车次查询接口</t>
-  </si>
-  <si>
-    <t>https://api.binstd.com/train/ticket</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>{"appkey": "935a981af6aec3b9", "start": "武汉", "end": "杭州", "date": "2021-02-15"}</t>
-  </si>
-  <si>
-    <t>{
+        </is>
+      </c>
+      <c r="L2" s="3" t="n"/>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Skip</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="n"/>
+      <c r="O2" s="3" t="n"/>
+    </row>
+    <row r="3" ht="58.5" customHeight="1" s="4">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>case2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>车次查询接口</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>https://api.binstd.com/train/ticket</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>{"appkey": "935a981af6aec3b9", "start": "武汉", "end": "杭州", "date": "2021-02-15"}</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>{
   "msg": "ok",
   "result": {
     "date": "2021-02-15",
@@ -1509,9 +1931,11 @@
   },
   "status": 0
 }</t>
-  </si>
-  <si>
-    <t>{
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>{
   "msg": "ok",
   "result": {
     "date": "2021-02-15",
@@ -1519,7 +1943,7 @@
     "list": [
       {
         "arrivaltime": "11:14",
-        "canbay": "N",
+        "canbuy": "N",
         "costtime": "4小时29分",
         "day": 1,
         "departstation": "汉口",
@@ -1575,8 +1999,65 @@
         "typename": "动车"
       },
       {
+        "arrivaltime": "15:49",
+        "canbuy": "N",
+        "costtime": "6小时37分",
+        "day": 1,
+        "departstation": "汉口",
+        "departstationcode": "HKN",
+        "departuretime": "09:12",
+        "distance": 0,
+        "endstation": "杭州东",
+        "endstationcode": "HGH",
+        "isend": 1,
+        "numdw": "-",
+        "numdw1": "-",
+        "numed": "无",
+        "numgr1": "-",
+        "numgr2": "-",
+        "numqt": "-",
+        "numrw1": "-",
+        "numrw2": "-",
+        "numrz": "-",
+        "numsw": "-",
+        "numtd": "-",
+        "numwz": "-",
+        "numyd": "无",
+        "numyw1": "-",
+        "numyw2": "-",
+        "numyw3": "-",
+        "numyz": "-",
+        "pricedw": "-",
+        "pricedw1": "-",
+        "priceed": 296,
+        "pricegr1": "-",
+        "pricegr2": "-",
+        "priceqt": "-",
+        "pricerw1": "-",
+        "pricerw2": "-",
+        "pricerz": "-",
+        "pricesw": "-",
+        "pricetd": "-",
+        "pricewz": "-",
+        "priceyd": 475,
+        "priceyw1": "-",
+        "priceyw2": "-",
+        "priceyw3": "-",
+        "priceyz": "-",
+        "sequenceno": 1,
+        "startdate": "20210215",
+        "station": "汉口",
+        "stationcode": "HKN",
+        "terminalstation": "杭州东",
+        "terminalstationcode": "HGH",
+        "trainno": "D3398",
+        "trainno12306": "",
+        "type": "D",
+        "typename": "动车"
+      },
+      {
         "arrivaltime": "13:58",
-        "canbay": "N",
+        "canbuy": "N",
         "costtime": "4小时36分",
         "day": 1,
         "departstation": "武汉",
@@ -1633,7 +2114,7 @@
       },
       {
         "arrivaltime": "14:34",
-        "canbay": "N",
+        "canbuy": "N",
         "costtime": "4小时58分",
         "day": 1,
         "departstation": "汉口",
@@ -1690,7 +2171,7 @@
       },
       {
         "arrivaltime": "15:49",
-        "canbay": "N",
+        "canbuy": "N",
         "costtime": "6小时6分",
         "day": 1,
         "departstation": "汉口",
@@ -1747,7 +2228,7 @@
       },
       {
         "arrivaltime": "14:31",
-        "canbay": "N",
+        "canbuy": "N",
         "costtime": "4小时38分",
         "day": 1,
         "departstation": "武汉",
@@ -1804,7 +2285,7 @@
       },
       {
         "arrivaltime": "15:55",
-        "canbay": "N",
+        "canbuy": "N",
         "costtime": "4小时46分",
         "day": 1,
         "departstation": "宜昌东",
@@ -1861,7 +2342,7 @@
       },
       {
         "arrivaltime": "16:00",
-        "canbay": "N",
+        "canbuy": "N",
         "costtime": "3小时57分",
         "day": 1,
         "departstation": "武汉",
@@ -1918,7 +2399,7 @@
       },
       {
         "arrivaltime": "17:06",
-        "canbay": "N",
+        "canbuy": "N",
         "costtime": "4小时54分",
         "day": 1,
         "departstation": "汉口",
@@ -1975,7 +2456,7 @@
       },
       {
         "arrivaltime": "19:02",
-        "canbay": "N",
+        "canbuy": "N",
         "costtime": "6小时24分",
         "day": 1,
         "departstation": "西安北",
@@ -2032,7 +2513,7 @@
       },
       {
         "arrivaltime": "18:45",
-        "canbay": "N",
+        "canbuy": "N",
         "costtime": "4小时48分",
         "day": 1,
         "departstation": "重庆北",
@@ -2089,7 +2570,7 @@
       },
       {
         "arrivaltime": "18:29",
-        "canbay": "N",
+        "canbuy": "N",
         "costtime": "4小时9分",
         "day": 1,
         "departstation": "武汉",
@@ -2146,7 +2627,7 @@
       },
       {
         "arrivaltime": "20:11",
-        "canbay": "N",
+        "canbuy": "N",
         "costtime": "4小时46分",
         "day": 1,
         "departstation": "重庆北",
@@ -2202,8 +2683,65 @@
         "typename": "动车"
       },
       {
+        "arrivaltime": "21:53",
+        "canbuy": "N",
+        "costtime": "5小时6分",
+        "day": 1,
+        "departstation": "成都东",
+        "departstationcode": "ICW",
+        "departuretime": "16:47",
+        "distance": 0,
+        "endstation": "杭州东",
+        "endstationcode": "HGH",
+        "isend": 1,
+        "numdw": "-",
+        "numdw1": "-",
+        "numed": "无",
+        "numgr1": "-",
+        "numgr2": "-",
+        "numqt": "-",
+        "numrw1": "-",
+        "numrw2": "-",
+        "numrz": "-",
+        "numsw": "-",
+        "numtd": "-",
+        "numwz": "-",
+        "numyd": "无",
+        "numyw1": "-",
+        "numyw2": "-",
+        "numyw3": "-",
+        "numyz": "-",
+        "pricedw": "-",
+        "pricedw1": "-",
+        "priceed": 295,
+        "pricegr1": "-",
+        "pricegr2": "-",
+        "priceqt": "-",
+        "pricerw1": "-",
+        "pricerw2": "-",
+        "pricerz": "-",
+        "pricesw": "-",
+        "pricetd": "-",
+        "pricewz": "-",
+        "priceyd": 471,
+        "priceyw1": "-",
+        "priceyw2": "-",
+        "priceyw3": "-",
+        "priceyz": "-",
+        "sequenceno": 12,
+        "startdate": "20210215",
+        "station": "汉口",
+        "stationcode": "HKN",
+        "terminalstation": "杭州东",
+        "terminalstationcode": "HGH",
+        "trainno": "D2224",
+        "trainno12306": "",
+        "type": "D",
+        "typename": "动车"
+      },
+      {
         "arrivaltime": "05:04",
-        "canbay": "N",
+        "canbuy": "N",
         "costtime": "11小时29分",
         "day": 2,
         "departstation": "成都东",
@@ -2260,7 +2798,7 @@
       },
       {
         "arrivaltime": "05:15",
-        "canbay": "N",
+        "canbuy": "N",
         "costtime": "11小时6分",
         "day": 2,
         "departstation": "襄阳东",
@@ -2303,7 +2841,7 @@
         "priceyw1": 194,
         "priceyw2": "-",
         "priceyw3": "-",
-        "priceyz": 78,
+        "priceyz": 112,
         "sequenceno": 3,
         "startdate": "20210215",
         "station": "武昌",
@@ -2317,7 +2855,7 @@
       },
       {
         "arrivaltime": "22:50",
-        "canbay": "N",
+        "canbuy": "N",
         "costtime": "4小时39分",
         "day": 1,
         "departstation": "成都东",
@@ -2374,7 +2912,7 @@
       },
       {
         "arrivaltime": "07:16",
-        "canbay": "N",
+        "canbuy": "N",
         "costtime": "12小时49分",
         "day": 2,
         "departstation": "十堰",
@@ -2430,16 +2968,16 @@
         "typename": "快速"
       },
       {
-        "arrivaltime": "10:23",
-        "canbay": "N",
-        "costtime": "15小时5分",
+        "arrivaltime": "10:43",
+        "canbuy": "N",
+        "costtime": "15小时25分",
         "day": 2,
         "departstation": "荆门",
         "departstationcode": "JMN",
         "departuretime": "19:18",
         "distance": 0,
-        "endstation": "杭州南",
-        "endstationcode": "XHH",
+        "endstation": "杭州东",
+        "endstationcode": "HGH",
         "isend": 0,
         "numdw": "-",
         "numdw1": "-",
@@ -2464,17 +3002,17 @@
         "pricegr1": "-",
         "pricegr2": "-",
         "priceqt": "-",
-        "pricerw1": 297.5,
+        "pricerw1": 381.5,
         "pricerw2": "-",
         "pricerz": "-",
         "pricesw": "-",
         "pricetd": "-",
         "pricewz": "-",
         "priceyd": "-",
-        "priceyw1": 190.5,
+        "priceyw1": 244.5,
         "priceyw2": "-",
         "priceyw3": "-",
-        "priceyz": 110.5,
+        "priceyz": 141.5,
         "sequenceno": 5,
         "startdate": "20210215",
         "station": "汉口",
@@ -2488,7 +3026,7 @@
       },
       {
         "arrivaltime": "08:31",
-        "canbay": "N",
+        "canbuy": "N",
         "costtime": "12小时52分",
         "day": 2,
         "departstation": "成都",
@@ -2545,7 +3083,7 @@
       },
       {
         "arrivaltime": "06:59",
-        "canbay": "N",
+        "canbuy": "N",
         "costtime": "8小时36分",
         "day": 2,
         "departstation": "武昌",
@@ -2602,7 +3140,7 @@
       },
       {
         "arrivaltime": "06:47",
-        "canbay": "N",
+        "canbuy": "N",
         "costtime": "7小时53分",
         "day": 2,
         "departstation": "重庆北",
@@ -2662,24 +3200,54 @@
   },
   "status": 0
 }</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>case3</t>
-  </si>
-  <si>
-    <t>手机归属地查询接口</t>
-  </si>
-  <si>
-    <t>http://apis.juhe.cn/mobile/get</t>
-  </si>
-  <si>
-    <t>{"phone": "18207729493", "key": "df58e8b03b05f237c38a9e0bdb2bc4bb", "dtype": "json"}</t>
-  </si>
-  <si>
-    <t>{
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="n"/>
+    </row>
+    <row r="4" ht="63" customHeight="1" s="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>case3</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>手机归属地查询接口</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>http://apis.juhe.cn/mobile/get</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>{"phone": "18207729493", "key": "df58e8b03b05f237c38a9e0bdb2bc4bb", "dtype": "json"}</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>{
   "error_code": 0,
   "reason": "Return Successd!",
   "result": {
@@ -2692,30 +3260,83 @@
   },
   "resultcode": "200"
 }</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>case4</t>
-  </si>
-  <si>
-    <t>天气查询接口</t>
-  </si>
-  <si>
-    <t>https://www.tianqiapi.com/api</t>
-  </si>
-  <si>
-    <t>$.result.city</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>{"version": "v1","city": "武汉", "appid": "22859479", "appsecret": "xHg4Chou"}</t>
-  </si>
-  <si>
-    <t>{
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>{
+  "error_code": 0,
+  "reason": "Return Successd!",
+  "result": {
+    "areacode": "0772",
+    "card": "",
+    "city": "柳州",
+    "company": "移动",
+    "province": "广西",
+    "zip": "545000"
+  },
+  "resultcode": "200"
+}</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="n"/>
+      <c r="O4" s="3" t="n"/>
+    </row>
+    <row r="5" ht="66.75" customHeight="1" s="4">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>case4</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>天气查询接口</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>https://www.tianqiapi.com/api</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>case3</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>$.result.city</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>{"version": "v1","city": "武汉", "appid": "22859479", "appsecret": "xHg4Chou"}</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>{
   "city": "柳州",
   "cityEn": "liuzhou",
   "cityid": "101300301",
@@ -3357,9 +3978,11 @@
   ],
   "update_time": "2021-01-05 16:10:35"
 }</t>
-  </si>
-  <si>
-    <t>{
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>{
   "city": "柳州",
   "cityEn": "liuzhou",
   "cityid": "101300301",
@@ -3367,7 +3990,7 @@
   "countryEn": "China",
   "data": [
     {
-      "air": 57,
+      "air": 87,
       "air_level": "良",
       "air_tips": "空气好，可以外出活动，除极少数对污染物特别敏感的人群以外，对公众没有危害！",
       "alarm": {
@@ -3375,63 +3998,196 @@
         "alarm_level": "",
         "alarm_type": ""
       },
-      "date": "2021-01-10",
-      "day": "10日（今天）",
+      "date": "2021-01-24",
+      "day": "24日（今天）",
       "hours": [
         {
-          "day": "10日20时",
-          "tem": "7℃",
+          "day": "24日08时",
+          "tem": "14℃",
+          "wea": "多云",
+          "win": "南风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "24日11时",
+          "tem": "19℃",
+          "wea": "多云",
+          "win": "南风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "24日14时",
+          "tem": "21℃",
+          "wea": "多云",
+          "win": "南风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "24日17时",
+          "tem": "21℃",
+          "wea": "多云",
+          "win": "南风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "24日20时",
+          "tem": "19℃",
+          "wea": "多云",
+          "win": "南风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "24日23时",
+          "tem": "18℃",
           "wea": "阴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "10日23时",
-          "tem": "7℃",
+          "win": "南风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "25日02时",
+          "tem": "15℃",
           "wea": "阴",
-          "win": "北风",
-          "win_speed": "3-4级"
-        },
-        {
-          "day": "11日02时",
-          "tem": "7℃",
+          "win": "南风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "25日05时",
+          "tem": "14℃",
           "wea": "阴",
-          "win": "北风",
-          "win_speed": "3-4级"
-        },
-        {
-          "day": "11日05时",
-          "tem": "7℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "3-4级"
+          "win": "南风",
+          "win_speed": "&lt;3级"
         }
       ],
-      "humidity": 35,
+      "humidity": 48,
       "index": [
         {
-          "desc": "感觉有点冷，室外活动要穿厚实一点，年老体弱者要适当注意保暖。",
-          "level": "冷",
+          "desc": "温度未达到风寒所需的低温，稍作防寒准备即可。",
+          "level": "无",
           "title": "中暑指数"
         },
         {
-          "desc": "春天不减肥，夏天徒伤悲。风虽有点大，室内可健身。",
+          "desc": "春天不减肥，夏天徒伤悲。天气较舒适，快去运动吧。",
           "level": "",
           "title": "运动指数"
         },
         {
-          "desc": "天气条件好，血糖不易波动，可适时进行户外锻炼。",
+          "desc": "血糖较易波动，注意监测。",
+          "level": "较易波动",
+          "title": "健臻·血糖指数"
+        },
+        {
+          "desc": "建议穿薄外套或牛仔裤等服装。",
+          "level": "较舒适",
+          "title": "穿衣指数"
+        },
+        {
+          "desc": "无雨且风力较小，易保持清洁度。",
+          "level": "较适宜",
+          "title": "洗车指数"
+        },
+        {
+          "desc": "辐射较弱，涂擦SPF12-15、PA+护肤品。",
+          "level": "弱",
+          "title": "紫外线指数"
+        }
+      ],
+      "tem": "21℃",
+      "tem1": "22℃",
+      "tem2": "14℃",
+      "wea": "多云转阴",
+      "wea_img": "yun",
+      "week": "星期日",
+      "win": [
+        "南风",
+        "南风"
+      ],
+      "win_speed": "&lt;3级"
+    },
+    {
+      "date": "2021-01-25",
+      "day": "25日（明天）",
+      "hours": [
+        {
+          "day": "25日08时",
+          "tem": "14℃",
+          "wea": "阴",
+          "win": "南风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "25日11时",
+          "tem": "19℃",
+          "wea": "小雨",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "25日14时",
+          "tem": "20℃",
+          "wea": "小雨",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "25日17时",
+          "tem": "18℃",
+          "wea": "中雨",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "25日20时",
+          "tem": "17℃",
+          "wea": "小雨",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "25日23时",
+          "tem": "16℃",
+          "wea": "小雨",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "26日02时",
+          "tem": "14℃",
+          "wea": "小雨",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "26日05时",
+          "tem": "11℃",
+          "wea": "小雨",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        }
+      ],
+      "index": [
+        {
+          "desc": "温度未达到风寒所需的低温，稍作防寒准备即可。",
+          "level": "无",
+          "title": "中暑指数"
+        },
+        {
+          "desc": "春天快来了，雨天坚持室内运动吧。",
+          "level": "",
+          "title": "运动指数"
+        },
+        {
+          "desc": "天气条件不易引起血糖波动。",
           "level": "不易波动",
           "title": "健臻·血糖指数"
         },
         {
-          "desc": "建议着棉衣加羊毛衫等冬季服装。",
-          "level": "冷",
+          "desc": "建议穿薄外套或牛仔裤等服装。",
+          "level": "较舒适",
           "title": "穿衣指数"
         },
         {
-          "desc": "风力较大，洗车后会蒙上灰尘。",
-          "level": "较不宜",
+          "desc": "有雨，雨水和泥水会弄脏爱车。",
+          "level": "不宜",
           "title": "洗车指数"
         },
         {
@@ -3440,86 +4196,164 @@
           "title": "紫外线指数"
         }
       ],
-      "tem": "7℃",
-      "tem1": "12℃",
-      "tem2": "6℃",
-      "wea": "阴",
-      "wea_img": "yin",
-      "week": "星期日",
+      "tem": "14℃",
+      "tem1": "21℃",
+      "tem2": "11℃",
+      "wea": "小雨",
+      "wea_img": "yu",
+      "week": "星期一",
       "win": [
+        "北风",
         "北风"
       ],
-      "win_speed": "3-4级"
+      "win_speed": "&lt;3级"
     },
     {
-      "date": "2021-01-11",
-      "day": "11日（明天）",
+      "date": "2021-01-26",
+      "day": "26日（后天）",
       "hours": [
         {
-          "day": "11日08时",
-          "tem": "6℃",
-          "wea": "阴",
-          "win": "北风",
-          "win_speed": "3-4级"
-        },
-        {
-          "day": "11日11时",
-          "tem": "9℃",
-          "wea": "多云",
-          "win": "北风",
-          "win_speed": "3-4级"
-        },
-        {
-          "day": "11日14时",
+          "day": "26日08时",
           "tem": "11℃",
           "wea": "多云",
           "win": "北风",
-          "win_speed": "3-4级"
-        },
-        {
-          "day": "11日17时",
-          "tem": "11℃",
-          "wea": "多云",
-          "win": "北风",
-          "win_speed": "3-4级"
-        },
-        {
-          "day": "11日20时",
-          "tem": "9℃",
-          "wea": "晴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "11日23时",
-          "tem": "6℃",
-          "wea": "晴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "12日02时",
-          "tem": "4℃",
-          "wea": "晴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "12日05时",
-          "tem": "3℃",
-          "wea": "晴",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "26日11时",
+          "tem": "10℃",
+          "wea": "小雨",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "26日14时",
+          "tem": "14℃",
+          "wea": "小雨",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "26日17时",
+          "tem": "16℃",
+          "wea": "小雨",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "26日20时",
+          "tem": "13℃",
+          "wea": "小雨",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "26日23时",
+          "tem": "13℃",
+          "wea": "阴",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "27日02时",
+          "tem": "12℃",
+          "wea": "阴",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "27日05时",
+          "tem": "10℃",
+          "wea": "阴",
           "win": "北风",
           "win_speed": "&lt;3级"
         }
       ],
       "index": [
         {
-          "desc": "感觉有点凉，室外活动注意适当增减衣物。",
-          "level": "凉",
+          "desc": "温度未达到风寒所需的低温，稍作防寒准备即可。",
+          "level": "无",
           "title": "中暑指数"
         },
         {
-          "desc": "春天不减肥，夏天徒伤悲。风虽有点大，室内可健身。",
+          "desc": "春天快来了，雨天坚持室内运动吧。",
+          "level": "",
+          "title": "运动指数"
+        },
+        {
+          "desc": "气温多变，血糖易波动，请注意监测。",
+          "level": "易波动",
+          "title": "健臻·血糖指数"
+        },
+        {
+          "desc": "建议着厚外套加毛衣等服装。",
+          "level": "较冷",
+          "title": "穿衣指数"
+        },
+        {
+          "desc": "有雨，雨水和泥水会弄脏爱车。",
+          "level": "不宜",
+          "title": "洗车指数"
+        },
+        {
+          "desc": "辐射弱，涂擦SPF8-12防晒护肤品。",
+          "level": "最弱",
+          "title": "紫外线指数"
+        }
+      ],
+      "tem": "11℃",
+      "tem1": "17℃",
+      "tem2": "10℃",
+      "wea": "小雨",
+      "wea_img": "yu",
+      "week": "星期二",
+      "win": [
+        "北风",
+        "北风"
+      ],
+      "win_speed": "&lt;3级"
+    },
+    {
+      "date": "2021-01-27",
+      "day": "27日（周三）",
+      "hours": [
+        {
+          "day": "27日08时",
+          "tem": "10℃",
+          "wea": "小雨",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "27日14时",
+          "tem": "11℃",
+          "wea": "阴",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "27日20时",
+          "tem": "15℃",
+          "wea": "阴",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "28日02时",
+          "tem": "13℃",
+          "wea": "小雨",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        }
+      ],
+      "index": [
+        {
+          "desc": "温度未达到风寒所需的低温，稍作防寒准备即可。",
+          "level": "无",
+          "title": "中暑指数"
+        },
+        {
+          "desc": "春天不减肥，夏天徒伤悲。天气较舒适，快去运动吧。",
           "level": "",
           "title": "运动指数"
         },
@@ -3534,8 +4368,85 @@
           "title": "穿衣指数"
         },
         {
-          "desc": "风力较大，洗车后会蒙上灰尘。",
-          "level": "较不宜",
+          "desc": "有雨，雨水和泥水会弄脏爱车。",
+          "level": "不宜",
+          "title": "洗车指数"
+        },
+        {
+          "desc": "辐射弱，涂擦SPF8-12防晒护肤品。",
+          "level": "最弱",
+          "title": "紫外线指数"
+        }
+      ],
+      "tem": "10℃",
+      "tem1": "16℃",
+      "tem2": "10℃",
+      "wea": "阴转小雨",
+      "wea_img": "yu",
+      "week": "星期三",
+      "win": [
+        "北风",
+        "北风"
+      ],
+      "win_speed": "&lt;3级"
+    },
+    {
+      "date": "2021-01-28",
+      "day": "28日（周四）",
+      "hours": [
+        {
+          "day": "28日08时",
+          "tem": "10℃",
+          "wea": "小雨",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "28日14时",
+          "tem": "14℃",
+          "wea": "多云",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "28日20时",
+          "tem": "15℃",
+          "wea": "多云",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "29日02时",
+          "tem": "13℃",
+          "wea": "多云",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        }
+      ],
+      "index": [
+        {
+          "desc": "温度未达到风寒所需的低温，稍作防寒准备即可。",
+          "level": "无",
+          "title": "中暑指数"
+        },
+        {
+          "desc": "春天不减肥，夏天徒伤悲。天气较舒适，快去运动吧。",
+          "level": "",
+          "title": "运动指数"
+        },
+        {
+          "desc": "天气条件好，血糖不易波动，可适时进行户外锻炼。",
+          "level": "不易波动",
+          "title": "健臻·血糖指数"
+        },
+        {
+          "desc": "建议着厚外套加毛衣等服装。",
+          "level": "较冷",
+          "title": "穿衣指数"
+        },
+        {
+          "desc": "天气较好，适合擦洗汽车。",
+          "level": "适宜",
           "title": "洗车指数"
         },
         {
@@ -3544,76 +4455,48 @@
           "title": "紫外线指数"
         }
       ],
-      "tem": "6℃",
-      "tem1": "12℃",
-      "tem2": "3℃",
-      "wea": "多云转晴",
+      "tem": "10℃",
+      "tem1": "16℃",
+      "tem2": "10℃",
+      "wea": "多云",
       "wea_img": "yun",
-      "week": "星期一",
+      "week": "星期四",
       "win": [
         "北风",
         "北风"
       ],
-      "win_speed": "3-4级转&lt;3级"
+      "win_speed": "&lt;3级"
     },
     {
-      "date": "2021-01-12",
-      "day": "12日（后天）",
+      "date": "2021-01-29",
+      "day": "29日（周五）",
       "hours": [
         {
-          "day": "12日08时",
-          "tem": "4℃",
-          "wea": "晴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "12日11时",
+          "day": "29日08时",
           "tem": "10℃",
-          "wea": "晴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "12日14时",
+          "wea": "多云",
+          "win": "北风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "29日14时",
+          "tem": "14℃",
+          "wea": "多云",
+          "win": "东风",
+          "win_speed": "&lt;3级"
+        },
+        {
+          "day": "29日20时",
           "tem": "15℃",
-          "wea": "晴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "12日17时",
-          "tem": "15℃",
-          "wea": "晴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "12日20时",
-          "tem": "11℃",
-          "wea": "晴",
-          "win": "北风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "12日23时",
-          "tem": "6℃",
-          "wea": "晴",
+          "wea": "多云",
           "win": "东风",
           "win_speed": "&lt;3级"
         },
         {
-          "day": "13日02时",
-          "tem": "5℃",
-          "wea": "晴",
-          "win": "东风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "13日05时",
-          "tem": "4℃",
-          "wea": "晴",
-          "win": "东风",
+          "day": "30日02时",
+          "tem": "13℃",
+          "wea": "阴",
+          "win": "南风",
           "win_speed": "&lt;3级"
         }
       ],
@@ -3629,8 +4512,8 @@
           "title": "运动指数"
         },
         {
-          "desc": "气温多变，血糖易波动，请注意监测。",
-          "level": "易波动",
+          "desc": "天气条件好，血糖不易波动，可适时进行户外锻炼。",
+          "level": "不易波动",
           "title": "健臻·血糖指数"
         },
         {
@@ -3649,103 +4532,12 @@
           "title": "紫外线指数"
         }
       ],
-      "tem": "4℃",
+      "tem": "10℃",
       "tem1": "16℃",
-      "tem2": "3℃",
-      "wea": "晴",
-      "wea_img": "qing",
-      "week": "星期二",
-      "win": [
-        "北风",
-        "东风"
-      ],
-      "win_speed": "&lt;3级"
-    },
-    {
-      "date": "2021-01-13",
-      "day": "13日（周三）",
-      "hours": [
-        {
-          "day": "13日08时",
-          "tem": "5℃",
-          "wea": "晴",
-          "win": "东风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "13日11时",
-          "tem": "13℃",
-          "wea": "晴",
-          "win": "东风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "13日14时",
-          "tem": "18℃",
-          "wea": "晴",
-          "win": "东风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "13日17时",
-          "tem": "18℃",
-          "wea": "晴",
-          "win": "东风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "13日20时",
-          "tem": "13℃",
-          "wea": "晴",
-          "win": "东风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "14日02时",
-          "tem": "9℃",
-          "wea": "多云",
-          "win": "南风",
-          "win_speed": "&lt;3级"
-        }
-      ],
-      "index": [
-        {
-          "desc": "温度未达到风寒所需的低温，稍作防寒准备即可。",
-          "level": "无",
-          "title": "中暑指数"
-        },
-        {
-          "desc": "春天不减肥，夏天徒伤悲。天气较舒适，快去运动吧。",
-          "level": "",
-          "title": "运动指数"
-        },
-        {
-          "desc": "天气条件好，血糖不易波动，可适时进行户外锻炼。",
-          "level": "不易波动",
-          "title": "健臻·血糖指数"
-        },
-        {
-          "desc": "建议穿薄外套或牛仔裤等服装。",
-          "level": "较舒适",
-          "title": "穿衣指数"
-        },
-        {
-          "desc": "天气较好，适合擦洗汽车。",
-          "level": "适宜",
-          "title": "洗车指数"
-        },
-        {
-          "desc": "涂擦SPF大于15、PA+防晒护肤品。",
-          "level": "强",
-          "title": "紫外线指数"
-        }
-      ],
-      "tem": "5℃",
-      "tem1": "19℃",
-      "tem2": "5℃",
-      "wea": "晴转多云",
+      "tem2": "10℃",
+      "wea": "多云转阴",
       "wea_img": "yun",
-      "week": "星期三",
+      "week": "星期五",
       "win": [
         "东风",
         "南风"
@@ -3753,34 +4545,34 @@
       "win_speed": "&lt;3级"
     },
     {
-      "date": "2021-01-14",
-      "day": "14日（周四）",
+      "date": "2021-01-30",
+      "day": "30日（周六）",
       "hours": [
         {
-          "day": "14日08时",
-          "tem": "8℃",
-          "wea": "多云",
+          "day": "30日08时",
+          "tem": "10℃",
+          "wea": "阴",
           "win": "南风",
           "win_speed": "&lt;3级"
         },
         {
-          "day": "14日14时",
-          "tem": "20℃",
-          "wea": "晴",
+          "day": "30日14时",
+          "tem": "18℃",
+          "wea": "阴",
           "win": "南风",
           "win_speed": "&lt;3级"
         },
         {
-          "day": "14日20时",
+          "day": "30日20时",
           "tem": "15℃",
-          "wea": "晴",
+          "wea": "阴",
           "win": "南风",
           "win_speed": "&lt;3级"
         },
         {
-          "day": "15日02时",
-          "tem": "11℃",
-          "wea": "晴",
+          "day": "31日02时",
+          "tem": "14℃",
+          "wea": "阴",
           "win": "南风",
           "win_speed": "&lt;3级"
         }
@@ -3807,175 +4599,21 @@
           "title": "穿衣指数"
         },
         {
-          "desc": "天气较好，适合擦洗汽车。",
-          "level": "适宜",
+          "desc": "无雨且风力较小，易保持清洁度。",
+          "level": "较适宜",
           "title": "洗车指数"
         },
         {
-          "desc": "涂擦SPF大于15、PA+防晒护肤品。",
-          "level": "强",
-          "title": "紫外线指数"
-        }
-      ],
-      "tem": "8℃",
-      "tem1": "21℃",
-      "tem2": "7℃",
-      "wea": "多云",
-      "wea_img": "yun",
-      "week": "星期四",
-      "win": [
-        "南风",
-        "南风"
-      ],
-      "win_speed": "&lt;3级"
-    },
-    {
-      "date": "2021-01-15",
-      "day": "15日（周五）",
-      "hours": [
-        {
-          "day": "15日08时",
-          "tem": "9℃",
-          "wea": "晴",
-          "win": "南风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "15日14时",
-          "tem": "21℃",
-          "wea": "晴",
-          "win": "南风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "15日20时",
-          "tem": "18℃",
-          "wea": "晴",
-          "win": "南风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "16日02时",
-          "tem": "12℃",
-          "wea": "晴",
-          "win": "南风",
-          "win_speed": "&lt;3级"
-        }
-      ],
-      "index": [
-        {
-          "desc": "温度未达到风寒所需的低温，稍作防寒准备即可。",
-          "level": "无",
-          "title": "中暑指数"
-        },
-        {
-          "desc": "春天不减肥，夏天徒伤悲。天气较舒适，快去运动吧。",
-          "level": "",
-          "title": "运动指数"
-        },
-        {
-          "desc": "天气条件好，血糖不易波动，可适时进行户外锻炼。",
-          "level": "不易波动",
-          "title": "健臻·血糖指数"
-        },
-        {
-          "desc": "建议穿薄外套或牛仔裤等服装。",
-          "level": "较舒适",
-          "title": "穿衣指数"
-        },
-        {
-          "desc": "天气较好，适合擦洗汽车。",
-          "level": "适宜",
-          "title": "洗车指数"
-        },
-        {
-          "desc": "涂擦SPF大于15、PA+防晒护肤品。",
-          "level": "强",
-          "title": "紫外线指数"
-        }
-      ],
-      "tem": "9℃",
-      "tem1": "22℃",
-      "tem2": "9℃",
-      "wea": "多云",
-      "wea_img": "yun",
-      "week": "星期五",
-      "win": [
-        "南风",
-        "南风"
-      ],
-      "win_speed": "&lt;3级"
-    },
-    {
-      "date": "2021-01-16",
-      "day": "16日（周六）",
-      "hours": [
-        {
-          "day": "16日08时",
-          "tem": "10℃",
-          "wea": "多云",
-          "win": "南风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "16日14时",
-          "tem": "20℃",
-          "wea": "多云",
-          "win": "南风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "16日20时",
-          "tem": "18℃",
-          "wea": "多云",
-          "win": "南风",
-          "win_speed": "&lt;3级"
-        },
-        {
-          "day": "17日02时",
-          "tem": "14℃",
-          "wea": "阴",
-          "win": "南风",
-          "win_speed": "&lt;3级"
-        }
-      ],
-      "index": [
-        {
-          "desc": "温度未达到风寒所需的低温，稍作防寒准备即可。",
-          "level": "无",
-          "title": "中暑指数"
-        },
-        {
-          "desc": "春天不减肥，夏天徒伤悲。天气较舒适，快去运动吧。",
-          "level": "",
-          "title": "运动指数"
-        },
-        {
-          "desc": "血糖较易波动，注意监测。",
-          "level": "较易波动",
-          "title": "健臻·血糖指数"
-        },
-        {
-          "desc": "建议穿薄外套或牛仔裤等服装。",
-          "level": "较舒适",
-          "title": "穿衣指数"
-        },
-        {
-          "desc": "天气较好，适合擦洗汽车。",
-          "level": "适宜",
-          "title": "洗车指数"
-        },
-        {
-          "desc": "辐射较弱，涂擦SPF12-15、PA+护肤品。",
-          "level": "弱",
+          "desc": "辐射弱，涂擦SPF8-12防晒护肤品。",
+          "level": "最弱",
           "title": "紫外线指数"
         }
       ],
       "tem": "10℃",
-      "tem1": "23℃",
-      "tem2": "10℃",
-      "wea": "多云转阴",
-      "wea_img": "yun",
+      "tem1": "19℃",
+      "tem2": "11℃",
+      "wea": "阴",
+      "wea_img": "yin",
       "week": "星期六",
       "win": [
         "南风",
@@ -3984,1333 +4622,791 @@
       "win_speed": "&lt;3级"
     }
   ],
-  "update_time": "2021-01-10 18:16:18"
+  "update_time": "2021-01-24 17:17:01"
 }</t>
-  </si>
-</sst>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:O204"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="6" width="14.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+        </is>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K49" s="2"/>
-    </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K54" s="2"/>
-    </row>
-    <row r="55" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K56" s="2"/>
-    </row>
-    <row r="57" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K57" s="2"/>
-    </row>
-    <row r="58" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K59" s="2"/>
-    </row>
-    <row r="60" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K62" s="2"/>
-    </row>
-    <row r="63" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K65" s="2"/>
-    </row>
-    <row r="66" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K66" s="2"/>
-    </row>
-    <row r="67" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K67" s="2"/>
-    </row>
-    <row r="68" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K68" s="2"/>
-    </row>
-    <row r="69" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K69" s="2"/>
-    </row>
-    <row r="70" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K71" s="2"/>
-    </row>
-    <row r="72" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K72" s="2"/>
-    </row>
-    <row r="73" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K73" s="2"/>
-    </row>
-    <row r="74" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K74" s="2"/>
-    </row>
-    <row r="75" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K75" s="2"/>
-    </row>
-    <row r="76" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K76" s="2"/>
-    </row>
-    <row r="77" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K77" s="2"/>
-    </row>
-    <row r="78" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K78" s="2"/>
-    </row>
-    <row r="79" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K79" s="2"/>
-    </row>
-    <row r="80" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K81" s="2"/>
-    </row>
-    <row r="82" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K82" s="2"/>
-    </row>
-    <row r="83" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K83" s="2"/>
-    </row>
-    <row r="84" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K84" s="2"/>
-    </row>
-    <row r="85" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K85" s="2"/>
-    </row>
-    <row r="86" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K86" s="2"/>
-    </row>
-    <row r="87" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K87" s="2"/>
-    </row>
-    <row r="88" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K88" s="2"/>
-    </row>
-    <row r="89" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K89" s="2"/>
-    </row>
-    <row r="90" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K90" s="2"/>
-    </row>
-    <row r="91" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K91" s="2"/>
-    </row>
-    <row r="92" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K92" s="2"/>
-    </row>
-    <row r="93" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K93" s="2"/>
-    </row>
-    <row r="94" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K94" s="2"/>
-    </row>
-    <row r="95" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K95" s="2"/>
-    </row>
-    <row r="96" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K96" s="2"/>
-    </row>
-    <row r="97" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K97" s="2"/>
-    </row>
-    <row r="98" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K98" s="2"/>
-    </row>
-    <row r="99" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K99" s="2"/>
-    </row>
-    <row r="100" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K100" s="2"/>
-    </row>
-    <row r="101" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K101" s="2"/>
-    </row>
-    <row r="102" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K102" s="2"/>
-    </row>
-    <row r="103" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K103" s="2"/>
-    </row>
-    <row r="104" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K104" s="2"/>
-    </row>
-    <row r="105" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K105" s="2"/>
-    </row>
-    <row r="106" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K106" s="2"/>
-    </row>
-    <row r="107" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K107" s="2"/>
-    </row>
-    <row r="108" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K108" s="2"/>
-    </row>
-    <row r="109" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K109" s="2"/>
-    </row>
-    <row r="110" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K110" s="2"/>
-    </row>
-    <row r="111" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K111" s="2"/>
-    </row>
-    <row r="112" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K112" s="2"/>
-    </row>
-    <row r="113" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K113" s="2"/>
-    </row>
-    <row r="114" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K114" s="2"/>
-    </row>
-    <row r="115" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K115" s="2"/>
-    </row>
-    <row r="116" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K116" s="2"/>
-    </row>
-    <row r="117" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K117" s="2"/>
-    </row>
-    <row r="118" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K118" s="2"/>
-    </row>
-    <row r="119" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K119" s="2"/>
-    </row>
-    <row r="120" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K120" s="2"/>
-    </row>
-    <row r="121" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K121" s="2"/>
-    </row>
-    <row r="122" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K122" s="2"/>
-    </row>
-    <row r="123" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K123" s="2"/>
-    </row>
-    <row r="124" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K124" s="2"/>
-    </row>
-    <row r="125" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K125" s="2"/>
-    </row>
-    <row r="126" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K126" s="2"/>
-    </row>
-    <row r="127" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K127" s="2"/>
-    </row>
-    <row r="128" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K128" s="2"/>
-    </row>
-    <row r="129" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K129" s="2"/>
-    </row>
-    <row r="130" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K130" s="2"/>
-    </row>
-    <row r="131" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K131" s="2"/>
-    </row>
-    <row r="132" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K132" s="2"/>
-    </row>
-    <row r="133" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K133" s="2"/>
-    </row>
-    <row r="134" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K134" s="2"/>
-    </row>
-    <row r="135" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K135" s="2"/>
-    </row>
-    <row r="136" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K136" s="2"/>
-    </row>
-    <row r="137" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K137" s="2"/>
-    </row>
-    <row r="138" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K138" s="2"/>
-    </row>
-    <row r="139" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K139" s="2"/>
-    </row>
-    <row r="140" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K140" s="2"/>
-    </row>
-    <row r="141" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K141" s="2"/>
-    </row>
-    <row r="142" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K142" s="2"/>
-    </row>
-    <row r="143" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K143" s="2"/>
-    </row>
-    <row r="144" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K144" s="2"/>
-    </row>
-    <row r="145" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K145" s="2"/>
-    </row>
-    <row r="146" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K146" s="2"/>
-    </row>
-    <row r="147" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K147" s="2"/>
-    </row>
-    <row r="148" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K148" s="2"/>
-    </row>
-    <row r="149" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K149" s="2"/>
-    </row>
-    <row r="150" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K150" s="2"/>
-    </row>
-    <row r="151" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K151" s="2"/>
-    </row>
-    <row r="152" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K152" s="2"/>
-    </row>
-    <row r="153" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K153" s="2"/>
-    </row>
-    <row r="154" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K154" s="2"/>
-    </row>
-    <row r="155" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K155" s="2"/>
-    </row>
-    <row r="156" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K156" s="2"/>
-    </row>
-    <row r="157" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K157" s="2"/>
-    </row>
-    <row r="158" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K158" s="2"/>
-    </row>
-    <row r="159" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K159" s="2"/>
-    </row>
-    <row r="160" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K160" s="2"/>
-    </row>
-    <row r="161" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K161" s="2"/>
-    </row>
-    <row r="162" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K162" s="2"/>
-    </row>
-    <row r="163" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K163" s="2"/>
-    </row>
-    <row r="164" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K164" s="2"/>
-    </row>
-    <row r="165" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K165" s="2"/>
-    </row>
-    <row r="166" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K166" s="2"/>
-    </row>
-    <row r="167" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K167" s="2"/>
-    </row>
-    <row r="168" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K168" s="2"/>
-    </row>
-    <row r="169" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K169" s="2"/>
-    </row>
-    <row r="170" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K170" s="2"/>
-    </row>
-    <row r="171" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K171" s="2"/>
-    </row>
-    <row r="172" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K172" s="2"/>
-    </row>
-    <row r="173" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K173" s="2"/>
-    </row>
-    <row r="174" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K174" s="2"/>
-    </row>
-    <row r="175" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K175" s="2"/>
-    </row>
-    <row r="176" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K176" s="2"/>
-    </row>
-    <row r="177" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K177" s="2"/>
-    </row>
-    <row r="178" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K178" s="2"/>
-    </row>
-    <row r="179" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K179" s="2"/>
-    </row>
-    <row r="180" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K180" s="2"/>
-    </row>
-    <row r="181" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K181" s="2"/>
-    </row>
-    <row r="182" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K182" s="2"/>
-    </row>
-    <row r="183" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K183" s="2"/>
-    </row>
-    <row r="184" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K184" s="2"/>
-    </row>
-    <row r="185" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K185" s="2"/>
-    </row>
-    <row r="186" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K186" s="2"/>
-    </row>
-    <row r="187" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K187" s="2"/>
-    </row>
-    <row r="188" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K188" s="2"/>
-    </row>
-    <row r="189" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K189" s="2"/>
-    </row>
-    <row r="190" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K190" s="2"/>
-    </row>
-    <row r="191" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K191" s="2"/>
-    </row>
-    <row r="192" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K192" s="2"/>
-    </row>
-    <row r="193" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K193" s="2"/>
-    </row>
-    <row r="194" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K194" s="2"/>
-    </row>
-    <row r="195" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K195" s="2"/>
-    </row>
-    <row r="196" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K196" s="2"/>
-    </row>
-    <row r="197" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K197" s="2"/>
-    </row>
-    <row r="198" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K198" s="2"/>
-    </row>
-    <row r="199" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K199" s="2"/>
-    </row>
-    <row r="200" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K200" s="2"/>
-    </row>
-    <row r="201" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K201" s="2"/>
-    </row>
-    <row r="202" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K202" s="2"/>
-    </row>
-    <row r="203" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K203" s="2"/>
-    </row>
-    <row r="204" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K204" s="2"/>
+      <c r="N5" s="3" t="n"/>
+      <c r="O5" s="3" t="n"/>
+    </row>
+    <row r="6" ht="35.25" customHeight="1" s="4">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="3" t="n"/>
+      <c r="M6" s="3" t="n"/>
+      <c r="N6" s="3" t="n"/>
+      <c r="O6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
+      <c r="M7" s="3" t="n"/>
+      <c r="N7" s="3" t="n"/>
+      <c r="O7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="3" t="n"/>
+      <c r="J8" s="3" t="n"/>
+      <c r="K8" s="3" t="n"/>
+      <c r="L8" s="3" t="n"/>
+      <c r="M8" s="3" t="n"/>
+      <c r="N8" s="3" t="n"/>
+      <c r="O8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="3" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="n"/>
+      <c r="M9" s="3" t="n"/>
+      <c r="N9" s="3" t="n"/>
+      <c r="O9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="3" t="n"/>
+      <c r="J10" s="3" t="n"/>
+      <c r="K10" s="3" t="n"/>
+      <c r="L10" s="3" t="n"/>
+      <c r="M10" s="3" t="n"/>
+      <c r="N10" s="3" t="n"/>
+      <c r="O10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="3" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="3" t="n"/>
+      <c r="M11" s="3" t="n"/>
+      <c r="N11" s="3" t="n"/>
+      <c r="O11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="3" t="n"/>
+      <c r="L12" s="3" t="n"/>
+      <c r="M12" s="3" t="n"/>
+      <c r="N12" s="3" t="n"/>
+      <c r="O12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="3" t="n"/>
+      <c r="M13" s="3" t="n"/>
+      <c r="N13" s="3" t="n"/>
+      <c r="O13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="3" t="n"/>
+      <c r="L14" s="3" t="n"/>
+      <c r="M14" s="3" t="n"/>
+      <c r="N14" s="3" t="n"/>
+      <c r="O14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
+      <c r="M15" s="3" t="n"/>
+      <c r="N15" s="3" t="n"/>
+      <c r="O15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="3" t="n"/>
+      <c r="K16" s="3" t="n"/>
+      <c r="L16" s="3" t="n"/>
+      <c r="M16" s="3" t="n"/>
+      <c r="N16" s="3" t="n"/>
+      <c r="O16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
+      <c r="L17" s="3" t="n"/>
+      <c r="M17" s="3" t="n"/>
+      <c r="N17" s="3" t="n"/>
+      <c r="O17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="K18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="K19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="K20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="K21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="K22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="K23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="K24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="K25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="K26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="K27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="K28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="K29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="K30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="K31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="K32" s="2" t="n"/>
+    </row>
+    <row r="33">
+      <c r="K33" s="2" t="n"/>
+    </row>
+    <row r="34">
+      <c r="K34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="K35" s="2" t="n"/>
+    </row>
+    <row r="36">
+      <c r="K36" s="2" t="n"/>
+    </row>
+    <row r="37">
+      <c r="K37" s="2" t="n"/>
+    </row>
+    <row r="38">
+      <c r="K38" s="2" t="n"/>
+    </row>
+    <row r="39">
+      <c r="K39" s="2" t="n"/>
+    </row>
+    <row r="40">
+      <c r="K40" s="2" t="n"/>
+    </row>
+    <row r="41">
+      <c r="K41" s="2" t="n"/>
+    </row>
+    <row r="42">
+      <c r="K42" s="2" t="n"/>
+    </row>
+    <row r="43">
+      <c r="K43" s="2" t="n"/>
+    </row>
+    <row r="44">
+      <c r="K44" s="2" t="n"/>
+    </row>
+    <row r="45">
+      <c r="K45" s="2" t="n"/>
+    </row>
+    <row r="46">
+      <c r="K46" s="2" t="n"/>
+    </row>
+    <row r="47">
+      <c r="K47" s="2" t="n"/>
+    </row>
+    <row r="48">
+      <c r="K48" s="2" t="n"/>
+    </row>
+    <row r="49">
+      <c r="K49" s="2" t="n"/>
+    </row>
+    <row r="50">
+      <c r="K50" s="2" t="n"/>
+    </row>
+    <row r="51">
+      <c r="K51" s="2" t="n"/>
+    </row>
+    <row r="52">
+      <c r="K52" s="2" t="n"/>
+    </row>
+    <row r="53">
+      <c r="K53" s="2" t="n"/>
+    </row>
+    <row r="54">
+      <c r="K54" s="2" t="n"/>
+    </row>
+    <row r="55">
+      <c r="K55" s="2" t="n"/>
+    </row>
+    <row r="56">
+      <c r="K56" s="2" t="n"/>
+    </row>
+    <row r="57">
+      <c r="K57" s="2" t="n"/>
+    </row>
+    <row r="58">
+      <c r="K58" s="2" t="n"/>
+    </row>
+    <row r="59">
+      <c r="K59" s="2" t="n"/>
+    </row>
+    <row r="60">
+      <c r="K60" s="2" t="n"/>
+    </row>
+    <row r="61">
+      <c r="K61" s="2" t="n"/>
+    </row>
+    <row r="62">
+      <c r="K62" s="2" t="n"/>
+    </row>
+    <row r="63">
+      <c r="K63" s="2" t="n"/>
+    </row>
+    <row r="64">
+      <c r="K64" s="2" t="n"/>
+    </row>
+    <row r="65">
+      <c r="K65" s="2" t="n"/>
+    </row>
+    <row r="66">
+      <c r="K66" s="2" t="n"/>
+    </row>
+    <row r="67">
+      <c r="K67" s="2" t="n"/>
+    </row>
+    <row r="68">
+      <c r="K68" s="2" t="n"/>
+    </row>
+    <row r="69">
+      <c r="K69" s="2" t="n"/>
+    </row>
+    <row r="70">
+      <c r="K70" s="2" t="n"/>
+    </row>
+    <row r="71">
+      <c r="K71" s="2" t="n"/>
+    </row>
+    <row r="72">
+      <c r="K72" s="2" t="n"/>
+    </row>
+    <row r="73">
+      <c r="K73" s="2" t="n"/>
+    </row>
+    <row r="74">
+      <c r="K74" s="2" t="n"/>
+    </row>
+    <row r="75">
+      <c r="K75" s="2" t="n"/>
+    </row>
+    <row r="76">
+      <c r="K76" s="2" t="n"/>
+    </row>
+    <row r="77">
+      <c r="K77" s="2" t="n"/>
+    </row>
+    <row r="78">
+      <c r="K78" s="2" t="n"/>
+    </row>
+    <row r="79">
+      <c r="K79" s="2" t="n"/>
+    </row>
+    <row r="80">
+      <c r="K80" s="2" t="n"/>
+    </row>
+    <row r="81">
+      <c r="K81" s="2" t="n"/>
+    </row>
+    <row r="82">
+      <c r="K82" s="2" t="n"/>
+    </row>
+    <row r="83">
+      <c r="K83" s="2" t="n"/>
+    </row>
+    <row r="84">
+      <c r="K84" s="2" t="n"/>
+    </row>
+    <row r="85">
+      <c r="K85" s="2" t="n"/>
+    </row>
+    <row r="86">
+      <c r="K86" s="2" t="n"/>
+    </row>
+    <row r="87">
+      <c r="K87" s="2" t="n"/>
+    </row>
+    <row r="88">
+      <c r="K88" s="2" t="n"/>
+    </row>
+    <row r="89">
+      <c r="K89" s="2" t="n"/>
+    </row>
+    <row r="90">
+      <c r="K90" s="2" t="n"/>
+    </row>
+    <row r="91">
+      <c r="K91" s="2" t="n"/>
+    </row>
+    <row r="92">
+      <c r="K92" s="2" t="n"/>
+    </row>
+    <row r="93">
+      <c r="K93" s="2" t="n"/>
+    </row>
+    <row r="94">
+      <c r="K94" s="2" t="n"/>
+    </row>
+    <row r="95">
+      <c r="K95" s="2" t="n"/>
+    </row>
+    <row r="96">
+      <c r="K96" s="2" t="n"/>
+    </row>
+    <row r="97">
+      <c r="K97" s="2" t="n"/>
+    </row>
+    <row r="98">
+      <c r="K98" s="2" t="n"/>
+    </row>
+    <row r="99">
+      <c r="K99" s="2" t="n"/>
+    </row>
+    <row r="100">
+      <c r="K100" s="2" t="n"/>
+    </row>
+    <row r="101">
+      <c r="K101" s="2" t="n"/>
+    </row>
+    <row r="102">
+      <c r="K102" s="2" t="n"/>
+    </row>
+    <row r="103">
+      <c r="K103" s="2" t="n"/>
+    </row>
+    <row r="104">
+      <c r="K104" s="2" t="n"/>
+    </row>
+    <row r="105">
+      <c r="K105" s="2" t="n"/>
+    </row>
+    <row r="106">
+      <c r="K106" s="2" t="n"/>
+    </row>
+    <row r="107">
+      <c r="K107" s="2" t="n"/>
+    </row>
+    <row r="108">
+      <c r="K108" s="2" t="n"/>
+    </row>
+    <row r="109">
+      <c r="K109" s="2" t="n"/>
+    </row>
+    <row r="110">
+      <c r="K110" s="2" t="n"/>
+    </row>
+    <row r="111">
+      <c r="K111" s="2" t="n"/>
+    </row>
+    <row r="112">
+      <c r="K112" s="2" t="n"/>
+    </row>
+    <row r="113">
+      <c r="K113" s="2" t="n"/>
+    </row>
+    <row r="114">
+      <c r="K114" s="2" t="n"/>
+    </row>
+    <row r="115">
+      <c r="K115" s="2" t="n"/>
+    </row>
+    <row r="116">
+      <c r="K116" s="2" t="n"/>
+    </row>
+    <row r="117">
+      <c r="K117" s="2" t="n"/>
+    </row>
+    <row r="118">
+      <c r="K118" s="2" t="n"/>
+    </row>
+    <row r="119">
+      <c r="K119" s="2" t="n"/>
+    </row>
+    <row r="120">
+      <c r="K120" s="2" t="n"/>
+    </row>
+    <row r="121">
+      <c r="K121" s="2" t="n"/>
+    </row>
+    <row r="122">
+      <c r="K122" s="2" t="n"/>
+    </row>
+    <row r="123">
+      <c r="K123" s="2" t="n"/>
+    </row>
+    <row r="124">
+      <c r="K124" s="2" t="n"/>
+    </row>
+    <row r="125">
+      <c r="K125" s="2" t="n"/>
+    </row>
+    <row r="126">
+      <c r="K126" s="2" t="n"/>
+    </row>
+    <row r="127">
+      <c r="K127" s="2" t="n"/>
+    </row>
+    <row r="128">
+      <c r="K128" s="2" t="n"/>
+    </row>
+    <row r="129">
+      <c r="K129" s="2" t="n"/>
+    </row>
+    <row r="130">
+      <c r="K130" s="2" t="n"/>
+    </row>
+    <row r="131">
+      <c r="K131" s="2" t="n"/>
+    </row>
+    <row r="132">
+      <c r="K132" s="2" t="n"/>
+    </row>
+    <row r="133">
+      <c r="K133" s="2" t="n"/>
+    </row>
+    <row r="134">
+      <c r="K134" s="2" t="n"/>
+    </row>
+    <row r="135">
+      <c r="K135" s="2" t="n"/>
+    </row>
+    <row r="136">
+      <c r="K136" s="2" t="n"/>
+    </row>
+    <row r="137">
+      <c r="K137" s="2" t="n"/>
+    </row>
+    <row r="138">
+      <c r="K138" s="2" t="n"/>
+    </row>
+    <row r="139">
+      <c r="K139" s="2" t="n"/>
+    </row>
+    <row r="140">
+      <c r="K140" s="2" t="n"/>
+    </row>
+    <row r="141">
+      <c r="K141" s="2" t="n"/>
+    </row>
+    <row r="142">
+      <c r="K142" s="2" t="n"/>
+    </row>
+    <row r="143">
+      <c r="K143" s="2" t="n"/>
+    </row>
+    <row r="144">
+      <c r="K144" s="2" t="n"/>
+    </row>
+    <row r="145">
+      <c r="K145" s="2" t="n"/>
+    </row>
+    <row r="146">
+      <c r="K146" s="2" t="n"/>
+    </row>
+    <row r="147">
+      <c r="K147" s="2" t="n"/>
+    </row>
+    <row r="148">
+      <c r="K148" s="2" t="n"/>
+    </row>
+    <row r="149">
+      <c r="K149" s="2" t="n"/>
+    </row>
+    <row r="150">
+      <c r="K150" s="2" t="n"/>
+    </row>
+    <row r="151">
+      <c r="K151" s="2" t="n"/>
+    </row>
+    <row r="152">
+      <c r="K152" s="2" t="n"/>
+    </row>
+    <row r="153">
+      <c r="K153" s="2" t="n"/>
+    </row>
+    <row r="154">
+      <c r="K154" s="2" t="n"/>
+    </row>
+    <row r="155">
+      <c r="K155" s="2" t="n"/>
+    </row>
+    <row r="156">
+      <c r="K156" s="2" t="n"/>
+    </row>
+    <row r="157">
+      <c r="K157" s="2" t="n"/>
+    </row>
+    <row r="158">
+      <c r="K158" s="2" t="n"/>
+    </row>
+    <row r="159">
+      <c r="K159" s="2" t="n"/>
+    </row>
+    <row r="160">
+      <c r="K160" s="2" t="n"/>
+    </row>
+    <row r="161">
+      <c r="K161" s="2" t="n"/>
+    </row>
+    <row r="162">
+      <c r="K162" s="2" t="n"/>
+    </row>
+    <row r="163">
+      <c r="K163" s="2" t="n"/>
+    </row>
+    <row r="164">
+      <c r="K164" s="2" t="n"/>
+    </row>
+    <row r="165">
+      <c r="K165" s="2" t="n"/>
+    </row>
+    <row r="166">
+      <c r="K166" s="2" t="n"/>
+    </row>
+    <row r="167">
+      <c r="K167" s="2" t="n"/>
+    </row>
+    <row r="168">
+      <c r="K168" s="2" t="n"/>
+    </row>
+    <row r="169">
+      <c r="K169" s="2" t="n"/>
+    </row>
+    <row r="170">
+      <c r="K170" s="2" t="n"/>
+    </row>
+    <row r="171">
+      <c r="K171" s="2" t="n"/>
+    </row>
+    <row r="172">
+      <c r="K172" s="2" t="n"/>
+    </row>
+    <row r="173">
+      <c r="K173" s="2" t="n"/>
+    </row>
+    <row r="174">
+      <c r="K174" s="2" t="n"/>
+    </row>
+    <row r="175">
+      <c r="K175" s="2" t="n"/>
+    </row>
+    <row r="176">
+      <c r="K176" s="2" t="n"/>
+    </row>
+    <row r="177">
+      <c r="K177" s="2" t="n"/>
+    </row>
+    <row r="178">
+      <c r="K178" s="2" t="n"/>
+    </row>
+    <row r="179">
+      <c r="K179" s="2" t="n"/>
+    </row>
+    <row r="180">
+      <c r="K180" s="2" t="n"/>
+    </row>
+    <row r="181">
+      <c r="K181" s="2" t="n"/>
+    </row>
+    <row r="182">
+      <c r="K182" s="2" t="n"/>
+    </row>
+    <row r="183">
+      <c r="K183" s="2" t="n"/>
+    </row>
+    <row r="184">
+      <c r="K184" s="2" t="n"/>
+    </row>
+    <row r="185">
+      <c r="K185" s="2" t="n"/>
+    </row>
+    <row r="186">
+      <c r="K186" s="2" t="n"/>
+    </row>
+    <row r="187">
+      <c r="K187" s="2" t="n"/>
+    </row>
+    <row r="188">
+      <c r="K188" s="2" t="n"/>
+    </row>
+    <row r="189">
+      <c r="K189" s="2" t="n"/>
+    </row>
+    <row r="190">
+      <c r="K190" s="2" t="n"/>
+    </row>
+    <row r="191">
+      <c r="K191" s="2" t="n"/>
+    </row>
+    <row r="192">
+      <c r="K192" s="2" t="n"/>
+    </row>
+    <row r="193">
+      <c r="K193" s="2" t="n"/>
+    </row>
+    <row r="194">
+      <c r="K194" s="2" t="n"/>
+    </row>
+    <row r="195">
+      <c r="K195" s="2" t="n"/>
+    </row>
+    <row r="196">
+      <c r="K196" s="2" t="n"/>
+    </row>
+    <row r="197">
+      <c r="K197" s="2" t="n"/>
+    </row>
+    <row r="198">
+      <c r="K198" s="2" t="n"/>
+    </row>
+    <row r="199">
+      <c r="K199" s="2" t="n"/>
+    </row>
+    <row r="200">
+      <c r="K200" s="2" t="n"/>
+    </row>
+    <row r="201">
+      <c r="K201" s="2" t="n"/>
+    </row>
+    <row r="202">
+      <c r="K202" s="2" t="n"/>
+    </row>
+    <row r="203">
+      <c r="K203" s="2" t="n"/>
+    </row>
+    <row r="204">
+      <c r="K204" s="2" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" r:id="rId3"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>